--- a/report/efa/summary.xlsx
+++ b/report/efa/summary.xlsx
@@ -10,15 +10,13 @@
     <sheet name="MSA" r:id="rId4" sheetId="2"/>
     <sheet name="first-EFA-f6" r:id="rId5" sheetId="3"/>
     <sheet name="first-EFA-f5" r:id="rId6" sheetId="4"/>
-    <sheet name="second-EFA-f6" r:id="rId7" sheetId="5"/>
-    <sheet name="second-EFA-f5" r:id="rId8" sheetId="6"/>
-    <sheet name="EFA-final" r:id="rId9" sheetId="7"/>
+    <sheet name="EFA-final" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="119">
   <si>
     <t>Multivariate Normality Tests</t>
   </si>
@@ -287,49 +285,55 @@
     <t>Image matrix</t>
   </si>
   <si>
-    <t>Exploratory Factor Analysis With 6 Factors and All Items</t>
+    <t>Exploratory Factor Analysis With 7 Factors and All Items</t>
   </si>
   <si>
     <t>Standardized loadings</t>
   </si>
   <si>
-    <t>WLS1</t>
-  </si>
-  <si>
-    <t>WLS2</t>
-  </si>
-  <si>
-    <t>WLS3</t>
-  </si>
-  <si>
-    <t>WLS5</t>
-  </si>
-  <si>
-    <t>WLS4</t>
-  </si>
-  <si>
-    <t>WLS6</t>
+    <t>ML1</t>
+  </si>
+  <si>
+    <t>ML4</t>
+  </si>
+  <si>
+    <t>ML5</t>
+  </si>
+  <si>
+    <t>ML2</t>
+  </si>
+  <si>
+    <t>ML3</t>
+  </si>
+  <si>
+    <t>ML6</t>
+  </si>
+  <si>
+    <t>ML7</t>
   </si>
   <si>
     <t>Measures of factor score adequacy</t>
   </si>
   <si>
-    <t>Vaccounted.WLS1</t>
-  </si>
-  <si>
-    <t>Vaccounted.WLS2</t>
-  </si>
-  <si>
-    <t>Vaccounted.WLS3</t>
-  </si>
-  <si>
-    <t>Vaccounted.WLS5</t>
-  </si>
-  <si>
-    <t>Vaccounted.WLS4</t>
-  </si>
-  <si>
-    <t>Vaccounted.WLS6</t>
+    <t>Vaccounted.ML1</t>
+  </si>
+  <si>
+    <t>Vaccounted.ML4</t>
+  </si>
+  <si>
+    <t>Vaccounted.ML5</t>
+  </si>
+  <si>
+    <t>Vaccounted.ML2</t>
+  </si>
+  <si>
+    <t>Vaccounted.ML3</t>
+  </si>
+  <si>
+    <t>Vaccounted.ML6</t>
+  </si>
+  <si>
+    <t>Vaccounted.ML7</t>
   </si>
   <si>
     <t>SS loadings</t>
@@ -356,63 +360,45 @@
     <t>Extra information</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean item complexity = 1.27642428409683
-The degrees of freedom for the model are = 49
-The objective function was = 68.1423593997582
-The Chi Square of the model is = 8111.2287799419
-The root mean square of the residuals (RMSR) is = 0.0826167014038883
-Tucker Lewis Index of factoring reliability is =  -1.36465095706505
-RMSEA index =  1.17761240989022
-The 90% confidence intervals of RMSEA are lower = 1.17419366848982 and upper = 1.18130474664232
-BIC = 296519.598902428
+    <t xml:space="preserve">Mean item complexity = 1.20906262766549
+The degrees of freedom for the model are = 38
+The objective function was = 58.2733797740635
+The Chi Square of the model is = 1082.080161264
+The root mean square of the residuals (RMSR) is = 0.0301754838842619
+Tucker Lewis Index of factoring reliability is =  -1.60758972580397
+RMSEA index =  1.23653167424246
+The 90% confidence intervals of RMSEA are lower = 1.23263819102877 and upper = 1.24071314330363
+BIC = 253568.876447332
 </t>
   </si>
   <si>
-    <t>Exploratory Factor Analysis With 5 Factors and All Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean item complexity = 1.33702363413252
-The degrees of freedom for the model are = 61
-The objective function was = 68.3638733871717
-The Chi Square of the model is = 8634.63532681178
-The root mean square of the residuals (RMSR) is = 0.0852406054601762
-Tucker Lewis Index of factoring reliability is =  -0.905572627707918
-RMSEA index =  1.05721869673703
-The 90% confidence intervals of RMSEA are lower = 1.05415479504046 and upper = 1.06052822017432
-BIC = 297429.834545026
+    <t>Exploratory Factor Analysis With 7 Factors and Removing the Item24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean item complexity = 1.15412131938482
+The degrees of freedom for the model are = 29
+The objective function was = 57.4323783750715
+The Chi Square of the model is = 613.542945451371
+The root mean square of the residuals (RMSR) is = 0.0241894414456056
+Tucker Lewis Index of factoring reliability is =  -1.9931843927329
+RMSEA index =  1.40528785786319
+The 90% confidence intervals of RMSEA are lower = 1.40082986546393 and upper = 1.41007320887441
+BIC = 249999.35824981
 </t>
   </si>
   <si>
-    <t>Exploratory Factor Analysis With 6 Factors and Removing the Item24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean item complexity = 1.2548998823318
-The degrees of freedom for the model are = 50
-The objective function was = 67.6445725427962
-The Chi Square of the model is = 7669.62428422777
-The root mean square of the residuals (RMSR) is = 0.085524471970186
-Tucker Lewis Index of factoring reliability is =  -1.04462774036865
-RMSEA index =  1.16164156028616
-The 90% confidence intervals of RMSEA are lower = 1.15825670914181 and upper = 1.16529632536269
-BIC = 294409.75495633
-</t>
-  </si>
-  <si>
-    <t>Exploratory Factor Analysis With 5 Factors and Removing the Item24</t>
-  </si>
-  <si>
     <t>Exploratory Factor Analysis (Final)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean item complexity = 1.02005793870496
-The degrees of freedom for the model are = 23
-The objective function was = 46.8298782378874
-The Chi Square of the model is = 6690.59309603385
-The root mean square of the residuals (RMSR) is = 0.0990784006550962
-Tucker Lewis Index of factoring reliability is =  -1.83221574587996
-RMSEA index =  1.42528083099338
-The 90% confidence intervals of RMSEA are lower = 1.42025788330108 and upper = 1.43063707940212
-BIC = 203962.061521204
+    <t xml:space="preserve">Mean item complexity = 1.10918519874783
+The degrees of freedom for the model are = 39
+The objective function was = 59.5862434514862
+The Chi Square of the model is = 1141.13951185807
+The root mean square of the residuals (RMSR) is = 0.0329892717396767
+Tucker Lewis Index of factoring reliability is =  -1.30909151071752
+RMSEA index =  1.23438990665725
+The 90% confidence intervals of RMSEA are lower = 1.23054821804431 and upper = 1.23851897422827
+BIC = 259340.008633272
 </t>
   </si>
 </sst>
@@ -421,7 +407,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="352">
+  <fonts count="264">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1207,6 +1193,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1292,6 +1283,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1523,6 +1519,16 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1603,6 +1609,16 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1834,6 +1850,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1891,623 +1912,6 @@
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2685,7 +2089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="638">
+  <cellXfs count="462">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2926,7 +2330,6 @@
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2942,21 +2345,20 @@
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2970,16 +2372,16 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2991,14 +2393,14 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3022,24 +2424,22 @@
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3049,70 +2449,68 @@
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3128,85 +2526,80 @@
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3222,200 +2615,7 @@
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -5709,6 +4909,7 @@
     <col min="5" max="5" width="14.0" customWidth="true"/>
     <col min="6" max="6" width="14.0" customWidth="true"/>
     <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5751,28 +4952,34 @@
       <c r="G5" t="s" s="205">
         <v>96</v>
       </c>
+      <c r="H5" t="s" s="205">
+        <v>97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="201">
         <v>66</v>
       </c>
       <c r="B6" t="n" s="206">
-        <v>0.83</v>
+        <v>0.03</v>
       </c>
       <c r="C6" t="n" s="207">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="D6" t="n" s="208">
-        <v>0.05</v>
+        <v>1.12</v>
       </c>
       <c r="E6" t="n" s="209">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="F6" t="n" s="210">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n" s="211">
-        <v>-0.02</v>
+        <v>-0.11</v>
+      </c>
+      <c r="H6" t="n" s="212">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="7">
@@ -5780,22 +4987,25 @@
         <v>67</v>
       </c>
       <c r="B7" t="n" s="206">
-        <v>0.82</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="n" s="207">
         <v>-0.01</v>
       </c>
       <c r="D7" t="n" s="208">
-        <v>0.02</v>
+        <v>0.82</v>
       </c>
       <c r="E7" t="n" s="209">
-        <v>-0.01</v>
+        <v>0.15</v>
       </c>
       <c r="F7" t="n" s="210">
         <v>0.04</v>
       </c>
       <c r="G7" t="n" s="211">
-        <v>-0.01</v>
+        <v>-0.0</v>
+      </c>
+      <c r="H7" t="n" s="212">
+        <v>-0.0</v>
       </c>
     </row>
     <row r="8">
@@ -5803,22 +5013,25 @@
         <v>68</v>
       </c>
       <c r="B8" t="n" s="206">
-        <v>0.84</v>
+        <v>-0.03</v>
       </c>
       <c r="C8" t="n" s="207">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="D8" t="n" s="208">
-        <v>-0.01</v>
+        <v>0.87</v>
       </c>
       <c r="E8" t="n" s="209">
-        <v>-0.09</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="210">
-        <v>0.11</v>
+        <v>-0.05</v>
       </c>
       <c r="G8" t="n" s="211">
-        <v>-0.07</v>
+        <v>0.02</v>
+      </c>
+      <c r="H8" t="n" s="212">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -5826,22 +5039,25 @@
         <v>69</v>
       </c>
       <c r="B9" t="n" s="206">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
       <c r="C9" t="n" s="207">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D9" t="n" s="208">
-        <v>0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="E9" t="n" s="209">
-        <v>0.07</v>
+        <v>1.02</v>
       </c>
       <c r="F9" t="n" s="210">
-        <v>-0.59</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n" s="211">
-        <v>0.14</v>
+        <v>-0.26</v>
+      </c>
+      <c r="H9" t="n" s="212">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="10">
@@ -5849,22 +5065,25 @@
         <v>70</v>
       </c>
       <c r="B10" t="n" s="206">
-        <v>0.67</v>
+        <v>-0.03</v>
       </c>
       <c r="C10" t="n" s="207">
+        <v>-0.01</v>
+      </c>
+      <c r="D10" t="n" s="208">
+        <v>0.11</v>
+      </c>
+      <c r="E10" t="n" s="209">
+        <v>0.89</v>
+      </c>
+      <c r="F10" t="n" s="210">
+        <v>-0.09</v>
+      </c>
+      <c r="G10" t="n" s="211">
+        <v>0.13</v>
+      </c>
+      <c r="H10" t="n" s="212">
         <v>0.04</v>
-      </c>
-      <c r="D10" t="n" s="208">
-        <v>-0.0</v>
-      </c>
-      <c r="E10" t="n" s="209">
-        <v>0.11</v>
-      </c>
-      <c r="F10" t="n" s="210">
-        <v>-0.21</v>
-      </c>
-      <c r="G10" t="n" s="211">
-        <v>0.02</v>
       </c>
     </row>
     <row r="11">
@@ -5872,22 +5091,25 @@
         <v>71</v>
       </c>
       <c r="B11" t="n" s="206">
-        <v>0.68</v>
+        <v>-0.02</v>
       </c>
       <c r="C11" t="n" s="207">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="D11" t="n" s="208">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="E11" t="n" s="209">
-        <v>0.1</v>
+        <v>0.88</v>
       </c>
       <c r="F11" t="n" s="210">
-        <v>-0.25</v>
+        <v>-0.01</v>
       </c>
       <c r="G11" t="n" s="211">
-        <v>-0.01</v>
+        <v>0.02</v>
+      </c>
+      <c r="H11" t="n" s="212">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -5895,22 +5117,25 @@
         <v>72</v>
       </c>
       <c r="B12" t="n" s="206">
-        <v>-0.01</v>
+        <v>0.99</v>
       </c>
       <c r="C12" t="n" s="207">
-        <v>-0.01</v>
+        <v>-0.07</v>
       </c>
       <c r="D12" t="n" s="208">
-        <v>0.83</v>
+        <v>0.02</v>
       </c>
       <c r="E12" t="n" s="209">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="F12" t="n" s="210">
-        <v>-0.0</v>
+        <v>-0.03</v>
       </c>
       <c r="G12" t="n" s="211">
-        <v>0.01</v>
+        <v>0.05</v>
+      </c>
+      <c r="H12" t="n" s="212">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
@@ -5918,22 +5143,25 @@
         <v>73</v>
       </c>
       <c r="B13" t="n" s="206">
-        <v>0.02</v>
+        <v>0.96</v>
       </c>
       <c r="C13" t="n" s="207">
-        <v>0.0</v>
+        <v>-0.04</v>
       </c>
       <c r="D13" t="n" s="208">
-        <v>0.78</v>
+        <v>-0.02</v>
       </c>
       <c r="E13" t="n" s="209">
+        <v>0.05</v>
+      </c>
+      <c r="F13" t="n" s="210">
         <v>0.04</v>
       </c>
-      <c r="F13" t="n" s="210">
+      <c r="G13" t="n" s="211">
+        <v>0.01</v>
+      </c>
+      <c r="H13" t="n" s="212">
         <v>-0.03</v>
-      </c>
-      <c r="G13" t="n" s="211">
-        <v>-0.0</v>
       </c>
     </row>
     <row r="14">
@@ -5941,22 +5169,25 @@
         <v>74</v>
       </c>
       <c r="B14" t="n" s="206">
-        <v>0.03</v>
+        <v>1.05</v>
       </c>
       <c r="C14" t="n" s="207">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D14" t="n" s="208">
-        <v>0.82</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n" s="209">
+        <v>-0.02</v>
+      </c>
+      <c r="F14" t="n" s="210">
         <v>-0.01</v>
       </c>
-      <c r="F14" t="n" s="210">
-        <v>0.01</v>
-      </c>
       <c r="G14" t="n" s="211">
-        <v>-0.02</v>
+        <v>-0.12</v>
+      </c>
+      <c r="H14" t="n" s="212">
+        <v>0.22</v>
       </c>
     </row>
     <row r="15">
@@ -5964,22 +5195,25 @@
         <v>75</v>
       </c>
       <c r="B15" t="n" s="206">
-        <v>-0.01</v>
+        <v>-0.08</v>
       </c>
       <c r="C15" t="n" s="207">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="D15" t="n" s="208">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="E15" t="n" s="209">
-        <v>-0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F15" t="n" s="210">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="G15" t="n" s="211">
-        <v>0.08</v>
+        <v>-0.11</v>
+      </c>
+      <c r="H15" t="n" s="212">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="16">
@@ -5987,22 +5221,25 @@
         <v>76</v>
       </c>
       <c r="B16" t="n" s="206">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C16" t="n" s="207">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="D16" t="n" s="208">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="E16" t="n" s="209">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F16" t="n" s="210">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G16" t="n" s="211">
         <v>-0.02</v>
+      </c>
+      <c r="H16" t="n" s="212">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
@@ -6010,22 +5247,25 @@
         <v>77</v>
       </c>
       <c r="B17" t="n" s="206">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="C17" t="n" s="207">
-        <v>0.81</v>
+        <v>0.96</v>
       </c>
       <c r="D17" t="n" s="208">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E17" t="n" s="209">
-        <v>-0.02</v>
+        <v>-0.16</v>
       </c>
       <c r="F17" t="n" s="210">
-        <v>0.07</v>
+        <v>-0.0</v>
       </c>
       <c r="G17" t="n" s="211">
-        <v>-0.05</v>
+        <v>-0.06</v>
+      </c>
+      <c r="H17" t="n" s="212">
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
@@ -6033,22 +5273,25 @@
         <v>78</v>
       </c>
       <c r="B18" t="n" s="206">
-        <v>-0.0</v>
+        <v>-0.02</v>
       </c>
       <c r="C18" t="n" s="207">
+        <v>-0.14</v>
+      </c>
+      <c r="D18" t="n" s="208">
+        <v>-0.12</v>
+      </c>
+      <c r="E18" t="n" s="209">
+        <v>-0.11</v>
+      </c>
+      <c r="F18" t="n" s="210">
+        <v>-0.08</v>
+      </c>
+      <c r="G18" t="n" s="211">
+        <v>1.13</v>
+      </c>
+      <c r="H18" t="n" s="212">
         <v>0.01</v>
-      </c>
-      <c r="D18" t="n" s="208">
-        <v>0.13</v>
-      </c>
-      <c r="E18" t="n" s="209">
-        <v>0.32</v>
-      </c>
-      <c r="F18" t="n" s="210">
-        <v>0.43</v>
-      </c>
-      <c r="G18" t="n" s="211">
-        <v>0.12</v>
       </c>
     </row>
     <row r="19">
@@ -6056,22 +5299,25 @@
         <v>79</v>
       </c>
       <c r="B19" t="n" s="206">
-        <v>0.16</v>
+        <v>-0.03</v>
       </c>
       <c r="C19" t="n" s="207">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="D19" t="n" s="208">
-        <v>-0.14</v>
+        <v>0.06</v>
       </c>
       <c r="E19" t="n" s="209">
-        <v>0.46</v>
+        <v>-0.01</v>
       </c>
       <c r="F19" t="n" s="210">
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
       <c r="G19" t="n" s="211">
-        <v>0.07</v>
+        <v>0.47</v>
+      </c>
+      <c r="H19" t="n" s="212">
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
@@ -6079,22 +5325,25 @@
         <v>80</v>
       </c>
       <c r="B20" t="n" s="206">
-        <v>-0.0</v>
+        <v>-0.08</v>
       </c>
       <c r="C20" t="n" s="207">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="D20" t="n" s="208">
+        <v>0.06</v>
+      </c>
+      <c r="E20" t="n" s="209">
         <v>0.0</v>
       </c>
-      <c r="E20" t="n" s="209">
-        <v>0.72</v>
-      </c>
       <c r="F20" t="n" s="210">
-        <v>-0.01</v>
+        <v>1.01</v>
       </c>
       <c r="G20" t="n" s="211">
-        <v>-0.03</v>
+        <v>0.04</v>
+      </c>
+      <c r="H20" t="n" s="212">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="21">
@@ -6102,22 +5351,25 @@
         <v>81</v>
       </c>
       <c r="B21" t="n" s="206">
+        <v>0.07</v>
+      </c>
+      <c r="C21" t="n" s="207">
+        <v>0.08</v>
+      </c>
+      <c r="D21" t="n" s="208">
         <v>-0.07</v>
       </c>
-      <c r="C21" t="n" s="207">
-        <v>0.0</v>
-      </c>
-      <c r="D21" t="n" s="208">
-        <v>0.04</v>
-      </c>
       <c r="E21" t="n" s="209">
-        <v>0.74</v>
+        <v>-0.0</v>
       </c>
       <c r="F21" t="n" s="210">
-        <v>0.05</v>
+        <v>0.89</v>
       </c>
       <c r="G21" t="n" s="211">
-        <v>-0.07</v>
+        <v>-0.05</v>
+      </c>
+      <c r="H21" t="n" s="212">
+        <v>0.26</v>
       </c>
     </row>
     <row r="22">
@@ -6125,22 +5377,25 @@
         <v>82</v>
       </c>
       <c r="B22" t="n" s="206">
-        <v>-0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C22" t="n" s="207">
-        <v>-0.0</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="n" s="208">
+        <v>0.03</v>
+      </c>
+      <c r="E22" t="n" s="209">
+        <v>0.08</v>
+      </c>
+      <c r="F22" t="n" s="210">
         <v>0.0</v>
       </c>
-      <c r="E22" t="n" s="209">
-        <v>-0.06</v>
-      </c>
-      <c r="F22" t="n" s="210">
-        <v>-0.01</v>
-      </c>
       <c r="G22" t="n" s="211">
-        <v>0.82</v>
+        <v>0.29</v>
+      </c>
+      <c r="H22" t="n" s="212">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="23">
@@ -6154,143 +5409,161 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="215">
-        <v>97</v>
+      <c r="A25" t="s" s="216">
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
-      <c r="B26" t="s" s="229">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s" s="229">
+      <c r="B26" t="s" s="230">
         <v>99</v>
       </c>
-      <c r="D26" t="s" s="229">
+      <c r="C26" t="s" s="230">
         <v>100</v>
       </c>
-      <c r="E26" t="s" s="229">
+      <c r="D26" t="s" s="230">
         <v>101</v>
       </c>
-      <c r="F26" t="s" s="229">
+      <c r="E26" t="s" s="230">
         <v>102</v>
       </c>
-      <c r="G26" t="s" s="229">
+      <c r="F26" t="s" s="230">
         <v>103</v>
       </c>
+      <c r="G26" t="s" s="230">
+        <v>104</v>
+      </c>
+      <c r="H26" t="s" s="230">
+        <v>105</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="225">
-        <v>104</v>
-      </c>
-      <c r="B27" t="n" s="230">
-        <v>3.26</v>
-      </c>
-      <c r="C27" t="n" s="231">
-        <v>2.08</v>
-      </c>
-      <c r="D27" t="n" s="232">
-        <v>2.03</v>
-      </c>
-      <c r="E27" t="n" s="233">
-        <v>1.46</v>
-      </c>
-      <c r="F27" t="n" s="234">
-        <v>0.94</v>
-      </c>
-      <c r="G27" t="n" s="235">
-        <v>0.7</v>
+      <c r="A27" t="s" s="226">
+        <v>106</v>
+      </c>
+      <c r="B27" t="n" s="231">
+        <v>2.96</v>
+      </c>
+      <c r="C27" t="n" s="232">
+        <v>2.74</v>
+      </c>
+      <c r="D27" t="n" s="233">
+        <v>2.69</v>
+      </c>
+      <c r="E27" t="n" s="234">
+        <v>2.59</v>
+      </c>
+      <c r="F27" t="n" s="235">
+        <v>1.82</v>
+      </c>
+      <c r="G27" t="n" s="236">
+        <v>1.44</v>
+      </c>
+      <c r="H27" t="n" s="237">
+        <v>0.36</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="225">
-        <v>105</v>
-      </c>
-      <c r="B28" t="n" s="230">
+      <c r="A28" t="s" s="226">
+        <v>107</v>
+      </c>
+      <c r="B28" t="n" s="231">
+        <v>0.17</v>
+      </c>
+      <c r="C28" t="n" s="232">
+        <v>0.16</v>
+      </c>
+      <c r="D28" t="n" s="233">
+        <v>0.16</v>
+      </c>
+      <c r="E28" t="n" s="234">
+        <v>0.15</v>
+      </c>
+      <c r="F28" t="n" s="235">
+        <v>0.11</v>
+      </c>
+      <c r="G28" t="n" s="236">
+        <v>0.08</v>
+      </c>
+      <c r="H28" t="n" s="237">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="226">
+        <v>108</v>
+      </c>
+      <c r="B29" t="n" s="231">
+        <v>0.17</v>
+      </c>
+      <c r="C29" t="n" s="232">
+        <v>0.34</v>
+      </c>
+      <c r="D29" t="n" s="233">
+        <v>0.49</v>
+      </c>
+      <c r="E29" t="n" s="234">
+        <v>0.65</v>
+      </c>
+      <c r="F29" t="n" s="235">
+        <v>0.75</v>
+      </c>
+      <c r="G29" t="n" s="236">
+        <v>0.84</v>
+      </c>
+      <c r="H29" t="n" s="237">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="226">
+        <v>109</v>
+      </c>
+      <c r="B30" t="n" s="231">
+        <v>0.2</v>
+      </c>
+      <c r="C30" t="n" s="232">
         <v>0.19</v>
       </c>
-      <c r="C28" t="n" s="231">
+      <c r="D30" t="n" s="233">
+        <v>0.18</v>
+      </c>
+      <c r="E30" t="n" s="234">
+        <v>0.18</v>
+      </c>
+      <c r="F30" t="n" s="235">
         <v>0.12</v>
       </c>
-      <c r="D28" t="n" s="232">
-        <v>0.12</v>
-      </c>
-      <c r="E28" t="n" s="233">
-        <v>0.09</v>
-      </c>
-      <c r="F28" t="n" s="234">
-        <v>0.06</v>
-      </c>
-      <c r="G28" t="n" s="235">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="225">
-        <v>106</v>
-      </c>
-      <c r="B29" t="n" s="230">
-        <v>0.19</v>
-      </c>
-      <c r="C29" t="n" s="231">
-        <v>0.31</v>
-      </c>
-      <c r="D29" t="n" s="232">
-        <v>0.43</v>
-      </c>
-      <c r="E29" t="n" s="233">
-        <v>0.52</v>
-      </c>
-      <c r="F29" t="n" s="234">
-        <v>0.58</v>
-      </c>
-      <c r="G29" t="n" s="235">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="225">
-        <v>107</v>
-      </c>
-      <c r="B30" t="n" s="230">
-        <v>0.31</v>
-      </c>
-      <c r="C30" t="n" s="231">
+      <c r="G30" t="n" s="236">
+        <v>0.1</v>
+      </c>
+      <c r="H30" t="n" s="237">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="226">
+        <v>110</v>
+      </c>
+      <c r="B31" t="n" s="231">
         <v>0.2</v>
       </c>
-      <c r="D30" t="n" s="232">
-        <v>0.19</v>
-      </c>
-      <c r="E30" t="n" s="233">
-        <v>0.14</v>
-      </c>
-      <c r="F30" t="n" s="234">
-        <v>0.09</v>
-      </c>
-      <c r="G30" t="n" s="235">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="225">
-        <v>108</v>
-      </c>
-      <c r="B31" t="n" s="230">
-        <v>0.31</v>
-      </c>
-      <c r="C31" t="n" s="231">
-        <v>0.51</v>
-      </c>
-      <c r="D31" t="n" s="232">
-        <v>0.7</v>
-      </c>
-      <c r="E31" t="n" s="233">
-        <v>0.84</v>
-      </c>
-      <c r="F31" t="n" s="234">
-        <v>0.93</v>
-      </c>
-      <c r="G31" t="n" s="235">
+      <c r="C31" t="n" s="232">
+        <v>0.39</v>
+      </c>
+      <c r="D31" t="n" s="233">
+        <v>0.57</v>
+      </c>
+      <c r="E31" t="n" s="234">
+        <v>0.75</v>
+      </c>
+      <c r="F31" t="n" s="235">
+        <v>0.88</v>
+      </c>
+      <c r="G31" t="n" s="236">
+        <v>0.98</v>
+      </c>
+      <c r="H31" t="n" s="237">
         <v>1.0</v>
       </c>
     </row>
@@ -6305,150 +5578,150 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="239">
-        <v>109</v>
+      <c r="A34" t="s" s="241">
+        <v>111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35"/>
-      <c r="B35" t="s" s="253">
-        <v>110</v>
+      <c r="B35" t="s" s="255">
+        <v>112</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="249">
+      <c r="A36" t="s" s="251">
         <v>66</v>
       </c>
-      <c r="B36" t="n" s="254">
+      <c r="B36" t="n" s="256">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="251">
+        <v>67</v>
+      </c>
+      <c r="B37" t="n" s="256">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="251">
+        <v>68</v>
+      </c>
+      <c r="B38" t="n" s="256">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="251">
+        <v>69</v>
+      </c>
+      <c r="B39" t="n" s="256">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="251">
+        <v>70</v>
+      </c>
+      <c r="B40" t="n" s="256">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="251">
+        <v>71</v>
+      </c>
+      <c r="B41" t="n" s="256">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="251">
+        <v>72</v>
+      </c>
+      <c r="B42" t="n" s="256">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="251">
+        <v>73</v>
+      </c>
+      <c r="B43" t="n" s="256">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="251">
+        <v>74</v>
+      </c>
+      <c r="B44" t="n" s="256">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="251">
+        <v>75</v>
+      </c>
+      <c r="B45" t="n" s="256">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="251">
+        <v>76</v>
+      </c>
+      <c r="B46" t="n" s="256">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="251">
+        <v>77</v>
+      </c>
+      <c r="B47" t="n" s="256">
         <v>1.09</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="249">
-        <v>67</v>
-      </c>
-      <c r="B37" t="n" s="254">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="249">
-        <v>68</v>
-      </c>
-      <c r="B38" t="n" s="254">
+    <row r="48">
+      <c r="A48" t="s" s="251">
+        <v>78</v>
+      </c>
+      <c r="B48" t="n" s="256">
         <v>1.08</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="249">
-        <v>69</v>
-      </c>
-      <c r="B39" t="n" s="254">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="249">
-        <v>70</v>
-      </c>
-      <c r="B40" t="n" s="254">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="249">
-        <v>71</v>
-      </c>
-      <c r="B41" t="n" s="254">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="249">
-        <v>72</v>
-      </c>
-      <c r="B42" t="n" s="254">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="249">
-        <v>73</v>
-      </c>
-      <c r="B43" t="n" s="254">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="249">
-        <v>74</v>
-      </c>
-      <c r="B44" t="n" s="254">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="249">
-        <v>75</v>
-      </c>
-      <c r="B45" t="n" s="254">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="249">
-        <v>76</v>
-      </c>
-      <c r="B46" t="n" s="254">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="249">
-        <v>77</v>
-      </c>
-      <c r="B47" t="n" s="254">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="249">
-        <v>78</v>
-      </c>
-      <c r="B48" t="n" s="254">
-        <v>2.25</v>
-      </c>
-    </row>
     <row r="49">
-      <c r="A49" t="s" s="249">
+      <c r="A49" t="s" s="251">
         <v>79</v>
       </c>
-      <c r="B49" t="n" s="254">
+      <c r="B49" t="n" s="256">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="251">
+        <v>80</v>
+      </c>
+      <c r="B50" t="n" s="256">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="251">
+        <v>81</v>
+      </c>
+      <c r="B51" t="n" s="256">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="251">
+        <v>82</v>
+      </c>
+      <c r="B52" t="n" s="256">
         <v>2.45</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="249">
-        <v>80</v>
-      </c>
-      <c r="B50" t="n" s="254">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="249">
-        <v>81</v>
-      </c>
-      <c r="B51" t="n" s="254">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="249">
-        <v>82</v>
-      </c>
-      <c r="B52" t="n" s="254">
-        <v>1.02</v>
       </c>
     </row>
     <row r="53">
@@ -6462,13 +5735,13 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="258">
-        <v>111</v>
+      <c r="A55" t="s" s="260">
+        <v>113</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="269">
-        <v>112</v>
+      <c r="A56" t="s" s="271">
+        <v>114</v>
       </c>
     </row>
     <row r="57">
@@ -6518,11 +5791,13 @@
     <col min="4" max="4" width="14.0" customWidth="true"/>
     <col min="5" max="5" width="14.0" customWidth="true"/>
     <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="271">
-        <v>113</v>
+      <c r="A1" t="s" s="273">
+        <v>115</v>
       </c>
     </row>
     <row r="2">
@@ -6536,366 +5811,453 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="285">
+      <c r="A4" t="s" s="287">
         <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
-      <c r="B5" t="s" s="299">
+      <c r="B5" t="s" s="301">
         <v>91</v>
       </c>
-      <c r="C5" t="s" s="299">
+      <c r="C5" t="s" s="301">
         <v>92</v>
       </c>
-      <c r="D5" t="s" s="299">
+      <c r="D5" t="s" s="301">
         <v>93</v>
       </c>
-      <c r="E5" t="s" s="299">
+      <c r="E5" t="s" s="301">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s" s="301">
         <v>95</v>
       </c>
-      <c r="F5" t="s" s="299">
-        <v>94</v>
+      <c r="G5" t="s" s="301">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s" s="301">
+        <v>97</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="295">
+      <c r="A6" t="s" s="297">
         <v>66</v>
       </c>
-      <c r="B6" t="n" s="300">
-        <v>0.81</v>
-      </c>
-      <c r="C6" t="n" s="301">
-        <v>-0.11</v>
-      </c>
-      <c r="D6" t="n" s="302">
+      <c r="B6" t="n" s="302">
         <v>0.04</v>
       </c>
-      <c r="E6" t="n" s="303">
-        <v>0.14</v>
-      </c>
-      <c r="F6" t="n" s="304">
-        <v>-0.16</v>
+      <c r="C6" t="n" s="303">
+        <v>-0.03</v>
+      </c>
+      <c r="D6" t="n" s="304">
+        <v>1.11</v>
+      </c>
+      <c r="E6" t="n" s="305">
+        <v>-0.09</v>
+      </c>
+      <c r="F6" t="n" s="306">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="n" s="307">
+        <v>-0.05</v>
+      </c>
+      <c r="H6" t="n" s="308">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="295">
+      <c r="A7" t="s" s="297">
         <v>67</v>
       </c>
-      <c r="B7" t="n" s="300">
-        <v>0.81</v>
-      </c>
-      <c r="C7" t="n" s="301">
+      <c r="B7" t="n" s="302">
+        <v>0.01</v>
+      </c>
+      <c r="C7" t="n" s="303">
+        <v>-0.0</v>
+      </c>
+      <c r="D7" t="n" s="304">
+        <v>0.8</v>
+      </c>
+      <c r="E7" t="n" s="305">
+        <v>0.16</v>
+      </c>
+      <c r="F7" t="n" s="306">
+        <v>0.04</v>
+      </c>
+      <c r="G7" t="n" s="307">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="n" s="308">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="297">
+        <v>68</v>
+      </c>
+      <c r="B8" t="n" s="302">
         <v>-0.03</v>
       </c>
-      <c r="D7" t="n" s="302">
+      <c r="C8" t="n" s="303">
+        <v>0.04</v>
+      </c>
+      <c r="D8" t="n" s="304">
+        <v>0.85</v>
+      </c>
+      <c r="E8" t="n" s="305">
+        <v>-0.01</v>
+      </c>
+      <c r="F8" t="n" s="306">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" t="n" s="307">
+        <v>-0.0</v>
+      </c>
+      <c r="H8" t="n" s="308">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="297">
+        <v>69</v>
+      </c>
+      <c r="B9" t="n" s="302">
+        <v>0.05</v>
+      </c>
+      <c r="C9" t="n" s="303">
+        <v>0.06</v>
+      </c>
+      <c r="D9" t="n" s="304">
+        <v>-0.07</v>
+      </c>
+      <c r="E9" t="n" s="305">
+        <v>1.02</v>
+      </c>
+      <c r="F9" t="n" s="306">
+        <v>0.09</v>
+      </c>
+      <c r="G9" t="n" s="307">
+        <v>-0.15</v>
+      </c>
+      <c r="H9" t="n" s="308">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="297">
+        <v>70</v>
+      </c>
+      <c r="B10" t="n" s="302">
+        <v>-0.02</v>
+      </c>
+      <c r="C10" t="n" s="303">
         <v>0.01</v>
       </c>
-      <c r="E7" t="n" s="303">
-        <v>0.15</v>
-      </c>
-      <c r="F7" t="n" s="304">
+      <c r="D10" t="n" s="304">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="n" s="305">
+        <v>0.9</v>
+      </c>
+      <c r="F10" t="n" s="306">
+        <v>-0.09</v>
+      </c>
+      <c r="G10" t="n" s="307">
+        <v>0.13</v>
+      </c>
+      <c r="H10" t="n" s="308">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="297">
+        <v>71</v>
+      </c>
+      <c r="B11" t="n" s="302">
+        <v>-0.02</v>
+      </c>
+      <c r="C11" t="n" s="303">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="295">
-        <v>68</v>
-      </c>
-      <c r="B8" t="n" s="300">
-        <v>0.81</v>
-      </c>
-      <c r="C8" t="n" s="301">
+      <c r="D11" t="n" s="304">
+        <v>0.03</v>
+      </c>
+      <c r="E11" t="n" s="305">
+        <v>0.87</v>
+      </c>
+      <c r="F11" t="n" s="306">
         <v>-0.01</v>
       </c>
-      <c r="D8" t="n" s="302">
+      <c r="G11" t="n" s="307">
+        <v>0.01</v>
+      </c>
+      <c r="H11" t="n" s="308">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="297">
+        <v>72</v>
+      </c>
+      <c r="B12" t="n" s="302">
+        <v>0.98</v>
+      </c>
+      <c r="C12" t="n" s="303">
+        <v>-0.01</v>
+      </c>
+      <c r="D12" t="n" s="304">
+        <v>0.03</v>
+      </c>
+      <c r="E12" t="n" s="305">
+        <v>-0.02</v>
+      </c>
+      <c r="F12" t="n" s="306">
+        <v>-0.03</v>
+      </c>
+      <c r="G12" t="n" s="307">
+        <v>0.1</v>
+      </c>
+      <c r="H12" t="n" s="308">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="297">
+        <v>73</v>
+      </c>
+      <c r="B13" t="n" s="302">
+        <v>0.94</v>
+      </c>
+      <c r="C13" t="n" s="303">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n" s="304">
+        <v>-0.01</v>
+      </c>
+      <c r="E13" t="n" s="305">
+        <v>0.07</v>
+      </c>
+      <c r="F13" t="n" s="306">
+        <v>0.04</v>
+      </c>
+      <c r="G13" t="n" s="307">
+        <v>0.05</v>
+      </c>
+      <c r="H13" t="n" s="308">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="297">
+        <v>74</v>
+      </c>
+      <c r="B14" t="n" s="302">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n" s="303">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="n" s="304">
+        <v>-0.0</v>
+      </c>
+      <c r="E14" t="n" s="305">
+        <v>-0.03</v>
+      </c>
+      <c r="F14" t="n" s="306">
+        <v>-0.02</v>
+      </c>
+      <c r="G14" t="n" s="307">
+        <v>-0.12</v>
+      </c>
+      <c r="H14" t="n" s="308">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="297">
+        <v>75</v>
+      </c>
+      <c r="B15" t="n" s="302">
+        <v>-0.05</v>
+      </c>
+      <c r="C15" t="n" s="303">
+        <v>0.98</v>
+      </c>
+      <c r="D15" t="n" s="304">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="305">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="n" s="306">
         <v>-0.04</v>
       </c>
-      <c r="E8" t="n" s="303">
-        <v>0.17</v>
-      </c>
-      <c r="F8" t="n" s="304">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="295">
-        <v>69</v>
-      </c>
-      <c r="B9" t="n" s="300">
-        <v>0.52</v>
-      </c>
-      <c r="C9" t="n" s="301">
-        <v>0.13</v>
-      </c>
-      <c r="D9" t="n" s="302">
+      <c r="G15" t="n" s="307">
+        <v>-0.02</v>
+      </c>
+      <c r="H15" t="n" s="308">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="297">
+        <v>76</v>
+      </c>
+      <c r="B16" t="n" s="302">
+        <v>0.03</v>
+      </c>
+      <c r="C16" t="n" s="303">
+        <v>0.91</v>
+      </c>
+      <c r="D16" t="n" s="304">
+        <v>-0.1</v>
+      </c>
+      <c r="E16" t="n" s="305">
+        <v>0.04</v>
+      </c>
+      <c r="F16" t="n" s="306">
+        <v>0.03</v>
+      </c>
+      <c r="G16" t="n" s="307">
+        <v>0.03</v>
+      </c>
+      <c r="H16" t="n" s="308">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="297">
+        <v>77</v>
+      </c>
+      <c r="B17" t="n" s="302">
+        <v>0.01</v>
+      </c>
+      <c r="C17" t="n" s="303">
+        <v>0.94</v>
+      </c>
+      <c r="D17" t="n" s="304">
+        <v>0.11</v>
+      </c>
+      <c r="E17" t="n" s="305">
+        <v>-0.13</v>
+      </c>
+      <c r="F17" t="n" s="306">
+        <v>-0.0</v>
+      </c>
+      <c r="G17" t="n" s="307">
+        <v>-0.0</v>
+      </c>
+      <c r="H17" t="n" s="308">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="297">
+        <v>78</v>
+      </c>
+      <c r="B18" t="n" s="302">
+        <v>0.05</v>
+      </c>
+      <c r="C18" t="n" s="303">
+        <v>0.01</v>
+      </c>
+      <c r="D18" t="n" s="304">
+        <v>-0.08</v>
+      </c>
+      <c r="E18" t="n" s="305">
+        <v>-0.04</v>
+      </c>
+      <c r="F18" t="n" s="306">
+        <v>-0.07</v>
+      </c>
+      <c r="G18" t="n" s="307">
+        <v>1.05</v>
+      </c>
+      <c r="H18" t="n" s="308">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="297">
+        <v>79</v>
+      </c>
+      <c r="B19" t="n" s="302">
+        <v>-0.02</v>
+      </c>
+      <c r="C19" t="n" s="303">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n" s="304">
+        <v>0.07</v>
+      </c>
+      <c r="E19" t="n" s="305">
+        <v>0.01</v>
+      </c>
+      <c r="F19" t="n" s="306">
+        <v>0.12</v>
+      </c>
+      <c r="G19" t="n" s="307">
+        <v>0.39</v>
+      </c>
+      <c r="H19" t="n" s="308">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="297">
+        <v>80</v>
+      </c>
+      <c r="B20" t="n" s="302">
+        <v>-0.05</v>
+      </c>
+      <c r="C20" t="n" s="303">
+        <v>-0.02</v>
+      </c>
+      <c r="D20" t="n" s="304">
+        <v>0.07</v>
+      </c>
+      <c r="E20" t="n" s="305">
+        <v>0.03</v>
+      </c>
+      <c r="F20" t="n" s="306">
+        <v>1.0</v>
+      </c>
+      <c r="G20" t="n" s="307">
         <v>0.09</v>
       </c>
-      <c r="E9" t="n" s="303">
-        <v>-0.42</v>
-      </c>
-      <c r="F9" t="n" s="304">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="295">
-        <v>70</v>
-      </c>
-      <c r="B10" t="n" s="300">
-        <v>0.69</v>
-      </c>
-      <c r="C10" t="n" s="301">
-        <v>0.06</v>
-      </c>
-      <c r="D10" t="n" s="302">
-        <v>0.01</v>
-      </c>
-      <c r="E10" t="n" s="303">
-        <v>-0.05</v>
-      </c>
-      <c r="F10" t="n" s="304">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="295">
-        <v>71</v>
-      </c>
-      <c r="B11" t="n" s="300">
-        <v>0.69</v>
-      </c>
-      <c r="C11" t="n" s="301">
-        <v>0.03</v>
-      </c>
-      <c r="D11" t="n" s="302">
-        <v>-0.02</v>
-      </c>
-      <c r="E11" t="n" s="303">
+      <c r="H20" t="n" s="308">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="297">
+        <v>81</v>
+      </c>
+      <c r="B21" t="n" s="302">
+        <v>0.04</v>
+      </c>
+      <c r="C21" t="n" s="303">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n" s="304">
+        <v>-0.08</v>
+      </c>
+      <c r="E21" t="n" s="305">
+        <v>-0.03</v>
+      </c>
+      <c r="F21" t="n" s="306">
+        <v>0.87</v>
+      </c>
+      <c r="G21" t="n" s="307">
         <v>-0.1</v>
       </c>
-      <c r="F11" t="n" s="304">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="295">
-        <v>72</v>
-      </c>
-      <c r="B12" t="n" s="300">
-        <v>-0.02</v>
-      </c>
-      <c r="C12" t="n" s="301">
-        <v>-0.05</v>
-      </c>
-      <c r="D12" t="n" s="302">
-        <v>0.85</v>
-      </c>
-      <c r="E12" t="n" s="303">
-        <v>-0.02</v>
-      </c>
-      <c r="F12" t="n" s="304">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="295">
-        <v>73</v>
-      </c>
-      <c r="B13" t="n" s="300">
-        <v>0.03</v>
-      </c>
-      <c r="C13" t="n" s="301">
-        <v>-0.04</v>
-      </c>
-      <c r="D13" t="n" s="302">
-        <v>0.8</v>
-      </c>
-      <c r="E13" t="n" s="303">
-        <v>-0.02</v>
-      </c>
-      <c r="F13" t="n" s="304">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="295">
-        <v>74</v>
-      </c>
-      <c r="B14" t="n" s="300">
-        <v>0.02</v>
-      </c>
-      <c r="C14" t="n" s="301">
-        <v>-0.03</v>
-      </c>
-      <c r="D14" t="n" s="302">
-        <v>0.83</v>
-      </c>
-      <c r="E14" t="n" s="303">
-        <v>-0.01</v>
-      </c>
-      <c r="F14" t="n" s="304">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="295">
-        <v>75</v>
-      </c>
-      <c r="B15" t="n" s="300">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="n" s="301">
-        <v>0.9</v>
-      </c>
-      <c r="D15" t="n" s="302">
-        <v>-0.07</v>
-      </c>
-      <c r="E15" t="n" s="303">
-        <v>-0.06</v>
-      </c>
-      <c r="F15" t="n" s="304">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="295">
-        <v>76</v>
-      </c>
-      <c r="B16" t="n" s="300">
-        <v>-0.04</v>
-      </c>
-      <c r="C16" t="n" s="301">
-        <v>0.83</v>
-      </c>
-      <c r="D16" t="n" s="302">
-        <v>-0.01</v>
-      </c>
-      <c r="E16" t="n" s="303">
-        <v>0.03</v>
-      </c>
-      <c r="F16" t="n" s="304">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="295">
-        <v>77</v>
-      </c>
-      <c r="B17" t="n" s="300">
-        <v>0.02</v>
-      </c>
-      <c r="C17" t="n" s="301">
-        <v>0.79</v>
-      </c>
-      <c r="D17" t="n" s="302">
-        <v>-0.04</v>
-      </c>
-      <c r="E17" t="n" s="303">
-        <v>0.06</v>
-      </c>
-      <c r="F17" t="n" s="304">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="295">
-        <v>78</v>
-      </c>
-      <c r="B18" t="n" s="300">
-        <v>-0.03</v>
-      </c>
-      <c r="C18" t="n" s="301">
-        <v>-0.03</v>
-      </c>
-      <c r="D18" t="n" s="302">
-        <v>0.12</v>
-      </c>
-      <c r="E18" t="n" s="303">
-        <v>0.6</v>
-      </c>
-      <c r="F18" t="n" s="304">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="295">
-        <v>79</v>
-      </c>
-      <c r="B19" t="n" s="300">
-        <v>0.13</v>
-      </c>
-      <c r="C19" t="n" s="301">
-        <v>-0.01</v>
-      </c>
-      <c r="D19" t="n" s="302">
-        <v>-0.17</v>
-      </c>
-      <c r="E19" t="n" s="303">
-        <v>0.71</v>
-      </c>
-      <c r="F19" t="n" s="304">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="295">
-        <v>80</v>
-      </c>
-      <c r="B20" t="n" s="300">
-        <v>0.02</v>
-      </c>
-      <c r="C20" t="n" s="301">
-        <v>-0.06</v>
-      </c>
-      <c r="D20" t="n" s="302">
-        <v>-0.01</v>
-      </c>
-      <c r="E20" t="n" s="303">
-        <v>0.28</v>
-      </c>
-      <c r="F20" t="n" s="304">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="295">
-        <v>81</v>
-      </c>
-      <c r="B21" t="n" s="300">
-        <v>-0.05</v>
-      </c>
-      <c r="C21" t="n" s="301">
-        <v>-0.05</v>
-      </c>
-      <c r="D21" t="n" s="302">
-        <v>0.01</v>
-      </c>
-      <c r="E21" t="n" s="303">
-        <v>0.32</v>
-      </c>
-      <c r="F21" t="n" s="304">
-        <v>0.59</v>
+      <c r="H21" t="n" s="308">
+        <v>0.33</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="295">
-        <v>82</v>
-      </c>
-      <c r="B22" t="n" s="300">
-        <v>-0.01</v>
-      </c>
-      <c r="C22" t="n" s="301">
-        <v>0.27</v>
-      </c>
-      <c r="D22" t="n" s="302">
-        <v>0.18</v>
-      </c>
-      <c r="E22" t="n" s="303">
-        <v>0.32</v>
-      </c>
-      <c r="F22" t="n" s="304">
-        <v>0.04</v>
+      <c r="A22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -6904,131 +6266,167 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="312">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="s" s="326">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s" s="326">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s" s="326">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s" s="326">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s" s="326">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s" s="326">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s" s="326">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="322">
+        <v>106</v>
+      </c>
+      <c r="B26" t="n" s="327">
+        <v>2.9</v>
+      </c>
+      <c r="C26" t="n" s="328">
+        <v>2.68</v>
+      </c>
+      <c r="D26" t="n" s="329">
+        <v>2.65</v>
+      </c>
+      <c r="E26" t="n" s="330">
+        <v>2.62</v>
+      </c>
+      <c r="F26" t="n" s="331">
+        <v>1.79</v>
+      </c>
+      <c r="G26" t="n" s="332">
+        <v>1.32</v>
+      </c>
+      <c r="H26" t="n" s="333">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="322">
+        <v>107</v>
+      </c>
+      <c r="B27" t="n" s="327">
+        <v>0.18</v>
+      </c>
+      <c r="C27" t="n" s="328">
+        <v>0.17</v>
+      </c>
+      <c r="D27" t="n" s="329">
+        <v>0.17</v>
+      </c>
+      <c r="E27" t="n" s="330">
+        <v>0.16</v>
+      </c>
+      <c r="F27" t="n" s="331">
+        <v>0.11</v>
+      </c>
+      <c r="G27" t="n" s="332">
+        <v>0.08</v>
+      </c>
+      <c r="H27" t="n" s="333">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="322">
+        <v>108</v>
+      </c>
+      <c r="B28" t="n" s="327">
+        <v>0.18</v>
+      </c>
+      <c r="C28" t="n" s="328">
+        <v>0.35</v>
+      </c>
+      <c r="D28" t="n" s="329">
+        <v>0.51</v>
+      </c>
+      <c r="E28" t="n" s="330">
+        <v>0.68</v>
+      </c>
+      <c r="F28" t="n" s="331">
+        <v>0.79</v>
+      </c>
+      <c r="G28" t="n" s="332">
+        <v>0.87</v>
+      </c>
+      <c r="H28" t="n" s="333">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="322">
+        <v>109</v>
+      </c>
+      <c r="B29" t="n" s="327">
+        <v>0.2</v>
+      </c>
+      <c r="C29" t="n" s="328">
+        <v>0.19</v>
+      </c>
+      <c r="D29" t="n" s="329">
+        <v>0.18</v>
+      </c>
+      <c r="E29" t="n" s="330">
+        <v>0.18</v>
+      </c>
+      <c r="F29" t="n" s="331">
+        <v>0.12</v>
+      </c>
+      <c r="G29" t="n" s="332">
+        <v>0.09</v>
+      </c>
+      <c r="H29" t="n" s="333">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="322">
+        <v>110</v>
+      </c>
+      <c r="B30" t="n" s="327">
+        <v>0.2</v>
+      </c>
+      <c r="C30" t="n" s="328">
+        <v>0.39</v>
+      </c>
+      <c r="D30" t="n" s="329">
+        <v>0.57</v>
+      </c>
+      <c r="E30" t="n" s="330">
+        <v>0.75</v>
+      </c>
+      <c r="F30" t="n" s="331">
+        <v>0.88</v>
+      </c>
+      <c r="G30" t="n" s="332">
+        <v>0.97</v>
+      </c>
+      <c r="H30" t="n" s="333">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="308">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="322">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s" s="322">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s" s="322">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s" s="322">
-        <v>102</v>
-      </c>
-      <c r="F26" t="s" s="322">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="318">
-        <v>104</v>
-      </c>
-      <c r="B27" t="n" s="323">
-        <v>3.28</v>
-      </c>
-      <c r="C27" t="n" s="324">
-        <v>2.19</v>
-      </c>
-      <c r="D27" t="n" s="325">
-        <v>2.1</v>
-      </c>
-      <c r="E27" t="n" s="326">
-        <v>1.49</v>
-      </c>
-      <c r="F27" t="n" s="327">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="318">
-        <v>105</v>
-      </c>
-      <c r="B28" t="n" s="323">
-        <v>0.19</v>
-      </c>
-      <c r="C28" t="n" s="324">
-        <v>0.13</v>
-      </c>
-      <c r="D28" t="n" s="325">
-        <v>0.12</v>
-      </c>
-      <c r="E28" t="n" s="326">
-        <v>0.09</v>
-      </c>
-      <c r="F28" t="n" s="327">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="318">
-        <v>106</v>
-      </c>
-      <c r="B29" t="n" s="323">
-        <v>0.19</v>
-      </c>
-      <c r="C29" t="n" s="324">
-        <v>0.32</v>
-      </c>
-      <c r="D29" t="n" s="325">
-        <v>0.45</v>
-      </c>
-      <c r="E29" t="n" s="326">
-        <v>0.53</v>
-      </c>
-      <c r="F29" t="n" s="327">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="318">
-        <v>107</v>
-      </c>
-      <c r="B30" t="n" s="323">
-        <v>0.33</v>
-      </c>
-      <c r="C30" t="n" s="324">
-        <v>0.22</v>
-      </c>
-      <c r="D30" t="n" s="325">
-        <v>0.21</v>
-      </c>
-      <c r="E30" t="n" s="326">
-        <v>0.15</v>
-      </c>
-      <c r="F30" t="n" s="327">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="318">
-        <v>108</v>
-      </c>
-      <c r="B31" t="n" s="323">
-        <v>0.33</v>
-      </c>
-      <c r="C31" t="n" s="324">
-        <v>0.54</v>
-      </c>
-      <c r="D31" t="n" s="325">
-        <v>0.75</v>
-      </c>
-      <c r="E31" t="n" s="326">
-        <v>0.9</v>
-      </c>
-      <c r="F31" t="n" s="327">
-        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -7037,175 +6435,172 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="337">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" t="s" s="351">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="347">
+        <v>66</v>
+      </c>
+      <c r="B35" t="n" s="352">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="347">
+        <v>67</v>
+      </c>
+      <c r="B36" t="n" s="352">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="347">
+        <v>68</v>
+      </c>
+      <c r="B37" t="n" s="352">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="347">
+        <v>69</v>
+      </c>
+      <c r="B38" t="n" s="352">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="347">
+        <v>70</v>
+      </c>
+      <c r="B39" t="n" s="352">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="347">
+        <v>71</v>
+      </c>
+      <c r="B40" t="n" s="352">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="347">
+        <v>72</v>
+      </c>
+      <c r="B41" t="n" s="352">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="347">
+        <v>73</v>
+      </c>
+      <c r="B42" t="n" s="352">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="347">
+        <v>74</v>
+      </c>
+      <c r="B43" t="n" s="352">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="347">
+        <v>75</v>
+      </c>
+      <c r="B44" t="n" s="352">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="347">
+        <v>76</v>
+      </c>
+      <c r="B45" t="n" s="352">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="347">
+        <v>77</v>
+      </c>
+      <c r="B46" t="n" s="352">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="347">
+        <v>78</v>
+      </c>
+      <c r="B47" t="n" s="352">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="347">
+        <v>79</v>
+      </c>
+      <c r="B48" t="n" s="352">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="347">
+        <v>80</v>
+      </c>
+      <c r="B49" t="n" s="352">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="347">
+        <v>81</v>
+      </c>
+      <c r="B50" t="n" s="352">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="331">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35"/>
-      <c r="B35" t="s" s="345">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="341">
-        <v>66</v>
-      </c>
-      <c r="B36" t="n" s="346">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="341">
-        <v>67</v>
-      </c>
-      <c r="B37" t="n" s="346">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="341">
-        <v>68</v>
-      </c>
-      <c r="B38" t="n" s="346">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="341">
-        <v>69</v>
-      </c>
-      <c r="B39" t="n" s="346">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="341">
-        <v>70</v>
-      </c>
-      <c r="B40" t="n" s="346">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="341">
-        <v>71</v>
-      </c>
-      <c r="B41" t="n" s="346">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="341">
-        <v>72</v>
-      </c>
-      <c r="B42" t="n" s="346">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="341">
-        <v>73</v>
-      </c>
-      <c r="B43" t="n" s="346">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="341">
-        <v>74</v>
-      </c>
-      <c r="B44" t="n" s="346">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="341">
-        <v>75</v>
-      </c>
-      <c r="B45" t="n" s="346">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="341">
-        <v>76</v>
-      </c>
-      <c r="B46" t="n" s="346">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="341">
-        <v>77</v>
-      </c>
-      <c r="B47" t="n" s="346">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="341">
-        <v>78</v>
-      </c>
-      <c r="B48" t="n" s="346">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="341">
-        <v>79</v>
-      </c>
-      <c r="B49" t="n" s="346">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="341">
-        <v>80</v>
-      </c>
-      <c r="B50" t="n" s="346">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="341">
-        <v>81</v>
-      </c>
-      <c r="B51" t="n" s="346">
-        <v>1.59</v>
-      </c>
-    </row>
     <row r="52">
-      <c r="A52" t="s" s="341">
-        <v>82</v>
-      </c>
-      <c r="B52" t="n" s="346">
-        <v>2.58</v>
+      <c r="A52" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="356">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="367">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
+    <row r="56">
+      <c r="A56" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="350">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="361">
-        <v>114</v>
       </c>
     </row>
     <row r="57">
@@ -7223,19 +6618,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A56:J60"/>
+    <mergeCell ref="A54:J58"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7255,11 +6640,12 @@
     <col min="4" max="4" width="14.0" customWidth="true"/>
     <col min="5" max="5" width="14.0" customWidth="true"/>
     <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="363">
-        <v>115</v>
+      <c r="A1" t="s" s="369">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -7273,346 +6659,397 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="377">
+      <c r="A4" t="s" s="383">
         <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
-      <c r="B5" t="s" s="391">
+      <c r="B5" t="s" s="397">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s" s="397">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s" s="397">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s" s="397">
         <v>91</v>
       </c>
-      <c r="C5" t="s" s="391">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s" s="391">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s" s="391">
+      <c r="F5" t="s" s="397">
         <v>95</v>
       </c>
-      <c r="F5" t="s" s="391">
-        <v>94</v>
+      <c r="G5" t="s" s="397">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="387">
+      <c r="A6" t="s" s="393">
         <v>66</v>
       </c>
-      <c r="B6" t="n" s="392">
-        <v>0.79</v>
-      </c>
-      <c r="C6" t="n" s="393">
+      <c r="B6" t="n" s="398">
+        <v>0.08</v>
+      </c>
+      <c r="C6" t="n" s="399">
+        <v>-0.03</v>
+      </c>
+      <c r="D6" t="n" s="400">
+        <v>1.09</v>
+      </c>
+      <c r="E6" t="n" s="401">
+        <v>-0.1</v>
+      </c>
+      <c r="F6" t="n" s="402">
+        <v>0.07</v>
+      </c>
+      <c r="G6" t="n" s="403">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="393">
+        <v>67</v>
+      </c>
+      <c r="B7" t="n" s="398">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n" s="399">
+        <v>-0.0</v>
+      </c>
+      <c r="D7" t="n" s="400">
+        <v>0.76</v>
+      </c>
+      <c r="E7" t="n" s="401">
+        <v>0.19</v>
+      </c>
+      <c r="F7" t="n" s="402">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="n" s="403">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="393">
+        <v>68</v>
+      </c>
+      <c r="B8" t="n" s="398">
+        <v>-0.04</v>
+      </c>
+      <c r="C8" t="n" s="399">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="n" s="400">
+        <v>0.87</v>
+      </c>
+      <c r="E8" t="n" s="401">
+        <v>-0.01</v>
+      </c>
+      <c r="F8" t="n" s="402">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" t="n" s="403">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="393">
+        <v>69</v>
+      </c>
+      <c r="B9" t="n" s="398">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="n" s="399">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n" s="400">
         <v>-0.09</v>
       </c>
-      <c r="D6" t="n" s="394">
+      <c r="E9" t="n" s="401">
+        <v>0.98</v>
+      </c>
+      <c r="F9" t="n" s="402">
+        <v>0.15</v>
+      </c>
+      <c r="G9" t="n" s="403">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="393">
+        <v>70</v>
+      </c>
+      <c r="B10" t="n" s="398">
+        <v>-0.05</v>
+      </c>
+      <c r="C10" t="n" s="399">
+        <v>0.01</v>
+      </c>
+      <c r="D10" t="n" s="400">
         <v>0.05</v>
       </c>
-      <c r="E6" t="n" s="395">
+      <c r="E10" t="n" s="401">
+        <v>0.93</v>
+      </c>
+      <c r="F10" t="n" s="402">
+        <v>-0.15</v>
+      </c>
+      <c r="G10" t="n" s="403">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="393">
+        <v>71</v>
+      </c>
+      <c r="B11" t="n" s="398">
+        <v>-0.02</v>
+      </c>
+      <c r="C11" t="n" s="399">
+        <v>-0.06</v>
+      </c>
+      <c r="D11" t="n" s="400">
+        <v>0.06</v>
+      </c>
+      <c r="E11" t="n" s="401">
+        <v>0.82</v>
+      </c>
+      <c r="F11" t="n" s="402">
+        <v>-0.0</v>
+      </c>
+      <c r="G11" t="n" s="403">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="393">
+        <v>72</v>
+      </c>
+      <c r="B12" t="n" s="398">
+        <v>0.99</v>
+      </c>
+      <c r="C12" t="n" s="399">
+        <v>-0.01</v>
+      </c>
+      <c r="D12" t="n" s="400">
+        <v>0.03</v>
+      </c>
+      <c r="E12" t="n" s="401">
+        <v>-0.03</v>
+      </c>
+      <c r="F12" t="n" s="402">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="n" s="403">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="393">
+        <v>73</v>
+      </c>
+      <c r="B13" t="n" s="398">
+        <v>0.96</v>
+      </c>
+      <c r="C13" t="n" s="399">
+        <v>-0.0</v>
+      </c>
+      <c r="D13" t="n" s="400">
+        <v>-0.01</v>
+      </c>
+      <c r="E13" t="n" s="401">
+        <v>0.06</v>
+      </c>
+      <c r="F13" t="n" s="402">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="n" s="403">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="393">
+        <v>74</v>
+      </c>
+      <c r="B14" t="n" s="398">
+        <v>0.94</v>
+      </c>
+      <c r="C14" t="n" s="399">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="n" s="400">
+        <v>0.02</v>
+      </c>
+      <c r="E14" t="n" s="401">
+        <v>-0.0</v>
+      </c>
+      <c r="F14" t="n" s="402">
+        <v>-0.08</v>
+      </c>
+      <c r="G14" t="n" s="403">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="393">
+        <v>75</v>
+      </c>
+      <c r="B15" t="n" s="398">
+        <v>-0.03</v>
+      </c>
+      <c r="C15" t="n" s="399">
+        <v>0.98</v>
+      </c>
+      <c r="D15" t="n" s="400">
+        <v>-0.0</v>
+      </c>
+      <c r="E15" t="n" s="401">
+        <v>0.09</v>
+      </c>
+      <c r="F15" t="n" s="402">
+        <v>-0.01</v>
+      </c>
+      <c r="G15" t="n" s="403">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="393">
+        <v>76</v>
+      </c>
+      <c r="B16" t="n" s="398">
+        <v>0.03</v>
+      </c>
+      <c r="C16" t="n" s="399">
+        <v>0.91</v>
+      </c>
+      <c r="D16" t="n" s="400">
+        <v>-0.1</v>
+      </c>
+      <c r="E16" t="n" s="401">
+        <v>0.04</v>
+      </c>
+      <c r="F16" t="n" s="402">
+        <v>0.02</v>
+      </c>
+      <c r="G16" t="n" s="403">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="393">
+        <v>77</v>
+      </c>
+      <c r="B17" t="n" s="398">
         <v>0.0</v>
       </c>
-      <c r="F6" t="n" s="396">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="387">
-        <v>67</v>
-      </c>
-      <c r="B7" t="n" s="392">
-        <v>0.75</v>
-      </c>
-      <c r="C7" t="n" s="393">
+      <c r="C17" t="n" s="399">
+        <v>0.94</v>
+      </c>
+      <c r="D17" t="n" s="400">
+        <v>0.11</v>
+      </c>
+      <c r="E17" t="n" s="401">
+        <v>-0.12</v>
+      </c>
+      <c r="F17" t="n" s="402">
         <v>-0.01</v>
       </c>
-      <c r="D7" t="n" s="394">
+      <c r="G17" t="n" s="403">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="393">
+        <v>78</v>
+      </c>
+      <c r="B18" t="n" s="398">
+        <v>0.11</v>
+      </c>
+      <c r="C18" t="n" s="399">
+        <v>-0.0</v>
+      </c>
+      <c r="D18" t="n" s="400">
+        <v>-0.1</v>
+      </c>
+      <c r="E18" t="n" s="401">
+        <v>-0.07</v>
+      </c>
+      <c r="F18" t="n" s="402">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n" s="403">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="393">
+        <v>79</v>
+      </c>
+      <c r="B19" t="n" s="398">
+        <v>-0.04</v>
+      </c>
+      <c r="C19" t="n" s="399">
+        <v>-0.0</v>
+      </c>
+      <c r="D19" t="n" s="400">
+        <v>0.07</v>
+      </c>
+      <c r="E19" t="n" s="401">
         <v>0.02</v>
       </c>
-      <c r="E7" t="n" s="395">
+      <c r="F19" t="n" s="402">
         <v>0.08</v>
       </c>
-      <c r="F7" t="n" s="396">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="387">
-        <v>68</v>
-      </c>
-      <c r="B8" t="n" s="392">
-        <v>0.77</v>
-      </c>
-      <c r="C8" t="n" s="393">
+      <c r="G19" t="n" s="403">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="393">
+        <v>80</v>
+      </c>
+      <c r="B20" t="n" s="398">
+        <v>-0.0</v>
+      </c>
+      <c r="C20" t="n" s="399">
+        <v>-0.02</v>
+      </c>
+      <c r="D20" t="n" s="400">
+        <v>0.06</v>
+      </c>
+      <c r="E20" t="n" s="401">
         <v>0.01</v>
       </c>
-      <c r="D8" t="n" s="394">
-        <v>-0.03</v>
-      </c>
-      <c r="E8" t="n" s="395">
-        <v>0.05</v>
-      </c>
-      <c r="F8" t="n" s="396">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="387">
-        <v>69</v>
-      </c>
-      <c r="B9" t="n" s="392">
-        <v>0.38</v>
-      </c>
-      <c r="C9" t="n" s="393">
-        <v>0.05</v>
-      </c>
-      <c r="D9" t="n" s="394">
-        <v>0.05</v>
-      </c>
-      <c r="E9" t="n" s="395">
-        <v>-0.22</v>
-      </c>
-      <c r="F9" t="n" s="396">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="387">
-        <v>70</v>
-      </c>
-      <c r="B10" t="n" s="392">
-        <v>0.59</v>
-      </c>
-      <c r="C10" t="n" s="393">
-        <v>0.05</v>
-      </c>
-      <c r="D10" t="n" s="394">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="395">
-        <v>0.04</v>
-      </c>
-      <c r="F10" t="n" s="396">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="387">
-        <v>71</v>
-      </c>
-      <c r="B11" t="n" s="392">
-        <v>0.59</v>
-      </c>
-      <c r="C11" t="n" s="393">
+      <c r="F20" t="n" s="402">
+        <v>1.01</v>
+      </c>
+      <c r="G20" t="n" s="403">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="393">
+        <v>81</v>
+      </c>
+      <c r="B21" t="n" s="398">
+        <v>-0.02</v>
+      </c>
+      <c r="C21" t="n" s="399">
+        <v>0.03</v>
+      </c>
+      <c r="D21" t="n" s="400">
+        <v>-0.05</v>
+      </c>
+      <c r="E21" t="n" s="401">
         <v>0.01</v>
       </c>
-      <c r="D11" t="n" s="394">
-        <v>-0.03</v>
-      </c>
-      <c r="E11" t="n" s="395">
-        <v>-0.0</v>
-      </c>
-      <c r="F11" t="n" s="396">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="387">
-        <v>72</v>
-      </c>
-      <c r="B12" t="n" s="392">
-        <v>-0.01</v>
-      </c>
-      <c r="C12" t="n" s="393">
-        <v>-0.01</v>
-      </c>
-      <c r="D12" t="n" s="394">
-        <v>0.83</v>
-      </c>
-      <c r="E12" t="n" s="395">
-        <v>-0.01</v>
-      </c>
-      <c r="F12" t="n" s="396">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="387">
-        <v>73</v>
-      </c>
-      <c r="B13" t="n" s="392">
-        <v>0.02</v>
-      </c>
-      <c r="C13" t="n" s="393">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n" s="394">
-        <v>0.78</v>
-      </c>
-      <c r="E13" t="n" s="395">
-        <v>0.02</v>
-      </c>
-      <c r="F13" t="n" s="396">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="387">
-        <v>74</v>
-      </c>
-      <c r="B14" t="n" s="392">
-        <v>0.02</v>
-      </c>
-      <c r="C14" t="n" s="393">
-        <v>0.01</v>
-      </c>
-      <c r="D14" t="n" s="394">
-        <v>0.81</v>
-      </c>
-      <c r="E14" t="n" s="395">
-        <v>-0.01</v>
-      </c>
-      <c r="F14" t="n" s="396">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="387">
-        <v>75</v>
-      </c>
-      <c r="B15" t="n" s="392">
-        <v>-0.01</v>
-      </c>
-      <c r="C15" t="n" s="393">
-        <v>0.88</v>
-      </c>
-      <c r="D15" t="n" s="394">
-        <v>-0.04</v>
-      </c>
-      <c r="E15" t="n" s="395">
-        <v>-0.06</v>
-      </c>
-      <c r="F15" t="n" s="396">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="387">
-        <v>76</v>
-      </c>
-      <c r="B16" t="n" s="392">
-        <v>-0.05</v>
-      </c>
-      <c r="C16" t="n" s="393">
-        <v>0.82</v>
-      </c>
-      <c r="D16" t="n" s="394">
-        <v>0.03</v>
-      </c>
-      <c r="E16" t="n" s="395">
-        <v>0.06</v>
-      </c>
-      <c r="F16" t="n" s="396">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="387">
-        <v>77</v>
-      </c>
-      <c r="B17" t="n" s="392">
-        <v>0.03</v>
-      </c>
-      <c r="C17" t="n" s="393">
-        <v>0.79</v>
-      </c>
-      <c r="D17" t="n" s="394">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n" s="395">
-        <v>0.03</v>
-      </c>
-      <c r="F17" t="n" s="396">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="387">
-        <v>78</v>
-      </c>
-      <c r="B18" t="n" s="392">
-        <v>0.02</v>
-      </c>
-      <c r="C18" t="n" s="393">
-        <v>0.04</v>
-      </c>
-      <c r="D18" t="n" s="394">
-        <v>0.15</v>
-      </c>
-      <c r="E18" t="n" s="395">
-        <v>0.61</v>
-      </c>
-      <c r="F18" t="n" s="396">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="387">
-        <v>79</v>
-      </c>
-      <c r="B19" t="n" s="392">
-        <v>0.15</v>
-      </c>
-      <c r="C19" t="n" s="393">
-        <v>0.04</v>
-      </c>
-      <c r="D19" t="n" s="394">
-        <v>-0.12</v>
-      </c>
-      <c r="E19" t="n" s="395">
+      <c r="F21" t="n" s="402">
         <v>0.73</v>
       </c>
-      <c r="F19" t="n" s="396">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="387">
-        <v>80</v>
-      </c>
-      <c r="B20" t="n" s="392">
-        <v>-0.03</v>
-      </c>
-      <c r="C20" t="n" s="393">
-        <v>-0.05</v>
-      </c>
-      <c r="D20" t="n" s="394">
-        <v>-0.01</v>
-      </c>
-      <c r="E20" t="n" s="395">
-        <v>0.59</v>
-      </c>
-      <c r="F20" t="n" s="396">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="387">
-        <v>81</v>
-      </c>
-      <c r="B21" t="n" s="392">
-        <v>-0.09</v>
-      </c>
-      <c r="C21" t="n" s="393">
-        <v>-0.02</v>
-      </c>
-      <c r="D21" t="n" s="394">
-        <v>0.02</v>
-      </c>
-      <c r="E21" t="n" s="395">
-        <v>0.64</v>
-      </c>
-      <c r="F21" t="n" s="396">
-        <v>0.26</v>
+      <c r="G21" t="n" s="403">
+        <v>0.29</v>
       </c>
     </row>
     <row r="22">
@@ -7626,125 +7063,143 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="400">
-        <v>97</v>
+      <c r="A24" t="s" s="407">
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
-      <c r="B25" t="s" s="414">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s" s="414">
+      <c r="B25" t="s" s="421">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s" s="421">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s" s="421">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s" s="421">
         <v>99</v>
       </c>
-      <c r="D25" t="s" s="414">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s" s="414">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s" s="414">
-        <v>101</v>
+      <c r="F25" t="s" s="421">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s" s="421">
+        <v>104</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="410">
-        <v>104</v>
-      </c>
-      <c r="B26" t="n" s="415">
-        <v>2.9</v>
-      </c>
-      <c r="C26" t="n" s="416">
-        <v>2.1</v>
-      </c>
-      <c r="D26" t="n" s="417">
-        <v>2.04</v>
-      </c>
-      <c r="E26" t="n" s="418">
-        <v>1.76</v>
-      </c>
-      <c r="F26" t="n" s="419">
-        <v>1.2</v>
+      <c r="A26" t="s" s="417">
+        <v>106</v>
+      </c>
+      <c r="B26" t="n" s="422">
+        <v>2.89</v>
+      </c>
+      <c r="C26" t="n" s="423">
+        <v>2.69</v>
+      </c>
+      <c r="D26" t="n" s="424">
+        <v>2.6</v>
+      </c>
+      <c r="E26" t="n" s="425">
+        <v>2.6</v>
+      </c>
+      <c r="F26" t="n" s="426">
+        <v>1.67</v>
+      </c>
+      <c r="G26" t="n" s="427">
+        <v>1.3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="410">
-        <v>105</v>
-      </c>
-      <c r="B27" t="n" s="415">
+      <c r="A27" t="s" s="417">
+        <v>107</v>
+      </c>
+      <c r="B27" t="n" s="422">
         <v>0.18</v>
       </c>
-      <c r="C27" t="n" s="416">
-        <v>0.13</v>
-      </c>
-      <c r="D27" t="n" s="417">
-        <v>0.13</v>
-      </c>
-      <c r="E27" t="n" s="418">
-        <v>0.11</v>
-      </c>
-      <c r="F27" t="n" s="419">
-        <v>0.07</v>
+      <c r="C27" t="n" s="423">
+        <v>0.17</v>
+      </c>
+      <c r="D27" t="n" s="424">
+        <v>0.16</v>
+      </c>
+      <c r="E27" t="n" s="425">
+        <v>0.16</v>
+      </c>
+      <c r="F27" t="n" s="426">
+        <v>0.1</v>
+      </c>
+      <c r="G27" t="n" s="427">
+        <v>0.08</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="410">
-        <v>106</v>
-      </c>
-      <c r="B28" t="n" s="415">
+      <c r="A28" t="s" s="417">
+        <v>108</v>
+      </c>
+      <c r="B28" t="n" s="422">
         <v>0.18</v>
       </c>
-      <c r="C28" t="n" s="416">
-        <v>0.31</v>
-      </c>
-      <c r="D28" t="n" s="417">
-        <v>0.44</v>
-      </c>
-      <c r="E28" t="n" s="418">
-        <v>0.55</v>
-      </c>
-      <c r="F28" t="n" s="419">
-        <v>0.62</v>
+      <c r="C28" t="n" s="423">
+        <v>0.35</v>
+      </c>
+      <c r="D28" t="n" s="424">
+        <v>0.51</v>
+      </c>
+      <c r="E28" t="n" s="425">
+        <v>0.67</v>
+      </c>
+      <c r="F28" t="n" s="426">
+        <v>0.78</v>
+      </c>
+      <c r="G28" t="n" s="427">
+        <v>0.86</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="410">
-        <v>107</v>
-      </c>
-      <c r="B29" t="n" s="415">
-        <v>0.29</v>
-      </c>
-      <c r="C29" t="n" s="416">
+      <c r="A29" t="s" s="417">
+        <v>109</v>
+      </c>
+      <c r="B29" t="n" s="422">
         <v>0.21</v>
       </c>
-      <c r="D29" t="n" s="417">
+      <c r="C29" t="n" s="423">
         <v>0.2</v>
       </c>
-      <c r="E29" t="n" s="418">
-        <v>0.18</v>
-      </c>
-      <c r="F29" t="n" s="419">
+      <c r="D29" t="n" s="424">
+        <v>0.19</v>
+      </c>
+      <c r="E29" t="n" s="425">
+        <v>0.19</v>
+      </c>
+      <c r="F29" t="n" s="426">
         <v>0.12</v>
       </c>
+      <c r="G29" t="n" s="427">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="410">
-        <v>108</v>
-      </c>
-      <c r="B30" t="n" s="415">
-        <v>0.29</v>
-      </c>
-      <c r="C30" t="n" s="416">
-        <v>0.5</v>
-      </c>
-      <c r="D30" t="n" s="417">
-        <v>0.7</v>
-      </c>
-      <c r="E30" t="n" s="418">
-        <v>0.88</v>
-      </c>
-      <c r="F30" t="n" s="419">
+      <c r="A30" t="s" s="417">
+        <v>110</v>
+      </c>
+      <c r="B30" t="n" s="422">
+        <v>0.21</v>
+      </c>
+      <c r="C30" t="n" s="423">
+        <v>0.41</v>
+      </c>
+      <c r="D30" t="n" s="424">
+        <v>0.59</v>
+      </c>
+      <c r="E30" t="n" s="425">
+        <v>0.78</v>
+      </c>
+      <c r="F30" t="n" s="426">
+        <v>0.91</v>
+      </c>
+      <c r="G30" t="n" s="427">
         <v>1.0</v>
       </c>
     </row>
@@ -7759,142 +7214,142 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="423">
-        <v>109</v>
+      <c r="A33" t="s" s="431">
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34"/>
-      <c r="B34" t="s" s="437">
-        <v>110</v>
+      <c r="B34" t="s" s="445">
+        <v>112</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="433">
+      <c r="A35" t="s" s="441">
         <v>66</v>
       </c>
-      <c r="B35" t="n" s="438">
+      <c r="B35" t="n" s="446">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="441">
+        <v>67</v>
+      </c>
+      <c r="B36" t="n" s="446">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="441">
+        <v>68</v>
+      </c>
+      <c r="B37" t="n" s="446">
         <v>1.03</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="433">
-        <v>67</v>
-      </c>
-      <c r="B36" t="n" s="438">
+    <row r="38">
+      <c r="A38" t="s" s="441">
+        <v>69</v>
+      </c>
+      <c r="B38" t="n" s="446">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="441">
+        <v>70</v>
+      </c>
+      <c r="B39" t="n" s="446">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="441">
+        <v>71</v>
+      </c>
+      <c r="B40" t="n" s="446">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="441">
+        <v>72</v>
+      </c>
+      <c r="B41" t="n" s="446">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="441">
+        <v>73</v>
+      </c>
+      <c r="B42" t="n" s="446">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="441">
+        <v>74</v>
+      </c>
+      <c r="B43" t="n" s="446">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="441">
+        <v>75</v>
+      </c>
+      <c r="B44" t="n" s="446">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="441">
+        <v>76</v>
+      </c>
+      <c r="B45" t="n" s="446">
         <v>1.04</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="433">
-        <v>68</v>
-      </c>
-      <c r="B37" t="n" s="438">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="433">
-        <v>69</v>
-      </c>
-      <c r="B38" t="n" s="438">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="433">
-        <v>70</v>
-      </c>
-      <c r="B39" t="n" s="438">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="433">
-        <v>71</v>
-      </c>
-      <c r="B40" t="n" s="438">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="433">
-        <v>72</v>
-      </c>
-      <c r="B41" t="n" s="438">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="433">
-        <v>73</v>
-      </c>
-      <c r="B42" t="n" s="438">
+    <row r="46">
+      <c r="A46" t="s" s="441">
+        <v>77</v>
+      </c>
+      <c r="B46" t="n" s="446">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="441">
+        <v>78</v>
+      </c>
+      <c r="B47" t="n" s="446">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="441">
+        <v>79</v>
+      </c>
+      <c r="B48" t="n" s="446">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="441">
+        <v>80</v>
+      </c>
+      <c r="B49" t="n" s="446">
         <v>1.01</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="433">
-        <v>74</v>
-      </c>
-      <c r="B43" t="n" s="438">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="433">
-        <v>75</v>
-      </c>
-      <c r="B44" t="n" s="438">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="433">
-        <v>76</v>
-      </c>
-      <c r="B45" t="n" s="438">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="433">
-        <v>77</v>
-      </c>
-      <c r="B46" t="n" s="438">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="433">
-        <v>78</v>
-      </c>
-      <c r="B47" t="n" s="438">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="433">
-        <v>79</v>
-      </c>
-      <c r="B48" t="n" s="438">
+    <row r="50">
+      <c r="A50" t="s" s="441">
+        <v>81</v>
+      </c>
+      <c r="B50" t="n" s="446">
         <v>1.32</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="433">
-        <v>80</v>
-      </c>
-      <c r="B49" t="n" s="438">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="433">
-        <v>81</v>
-      </c>
-      <c r="B50" t="n" s="438">
-        <v>1.37</v>
       </c>
     </row>
     <row r="51">
@@ -7908,13 +7363,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="442">
-        <v>111</v>
+      <c r="A53" t="s" s="450">
+        <v>113</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="453">
-        <v>116</v>
+      <c r="A54" t="s" s="461">
+        <v>118</v>
       </c>
     </row>
     <row r="55">
@@ -7948,1338 +7403,4 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="455">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="469">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s" s="483">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s" s="483">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s" s="483">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s" s="483">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s" s="483">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="479">
-        <v>66</v>
-      </c>
-      <c r="B6" t="n" s="484">
-        <v>0.79</v>
-      </c>
-      <c r="C6" t="n" s="485">
-        <v>-0.09</v>
-      </c>
-      <c r="D6" t="n" s="486">
-        <v>0.05</v>
-      </c>
-      <c r="E6" t="n" s="487">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n" s="488">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="479">
-        <v>67</v>
-      </c>
-      <c r="B7" t="n" s="484">
-        <v>0.75</v>
-      </c>
-      <c r="C7" t="n" s="485">
-        <v>-0.01</v>
-      </c>
-      <c r="D7" t="n" s="486">
-        <v>0.02</v>
-      </c>
-      <c r="E7" t="n" s="487">
-        <v>0.08</v>
-      </c>
-      <c r="F7" t="n" s="488">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="479">
-        <v>68</v>
-      </c>
-      <c r="B8" t="n" s="484">
-        <v>0.77</v>
-      </c>
-      <c r="C8" t="n" s="485">
-        <v>0.01</v>
-      </c>
-      <c r="D8" t="n" s="486">
-        <v>-0.03</v>
-      </c>
-      <c r="E8" t="n" s="487">
-        <v>0.05</v>
-      </c>
-      <c r="F8" t="n" s="488">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="479">
-        <v>69</v>
-      </c>
-      <c r="B9" t="n" s="484">
-        <v>0.38</v>
-      </c>
-      <c r="C9" t="n" s="485">
-        <v>0.05</v>
-      </c>
-      <c r="D9" t="n" s="486">
-        <v>0.05</v>
-      </c>
-      <c r="E9" t="n" s="487">
-        <v>-0.22</v>
-      </c>
-      <c r="F9" t="n" s="488">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="479">
-        <v>70</v>
-      </c>
-      <c r="B10" t="n" s="484">
-        <v>0.59</v>
-      </c>
-      <c r="C10" t="n" s="485">
-        <v>0.05</v>
-      </c>
-      <c r="D10" t="n" s="486">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="487">
-        <v>0.04</v>
-      </c>
-      <c r="F10" t="n" s="488">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="479">
-        <v>71</v>
-      </c>
-      <c r="B11" t="n" s="484">
-        <v>0.59</v>
-      </c>
-      <c r="C11" t="n" s="485">
-        <v>0.01</v>
-      </c>
-      <c r="D11" t="n" s="486">
-        <v>-0.03</v>
-      </c>
-      <c r="E11" t="n" s="487">
-        <v>-0.0</v>
-      </c>
-      <c r="F11" t="n" s="488">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="479">
-        <v>72</v>
-      </c>
-      <c r="B12" t="n" s="484">
-        <v>-0.01</v>
-      </c>
-      <c r="C12" t="n" s="485">
-        <v>-0.01</v>
-      </c>
-      <c r="D12" t="n" s="486">
-        <v>0.83</v>
-      </c>
-      <c r="E12" t="n" s="487">
-        <v>-0.01</v>
-      </c>
-      <c r="F12" t="n" s="488">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="479">
-        <v>73</v>
-      </c>
-      <c r="B13" t="n" s="484">
-        <v>0.02</v>
-      </c>
-      <c r="C13" t="n" s="485">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n" s="486">
-        <v>0.78</v>
-      </c>
-      <c r="E13" t="n" s="487">
-        <v>0.02</v>
-      </c>
-      <c r="F13" t="n" s="488">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="479">
-        <v>74</v>
-      </c>
-      <c r="B14" t="n" s="484">
-        <v>0.02</v>
-      </c>
-      <c r="C14" t="n" s="485">
-        <v>0.01</v>
-      </c>
-      <c r="D14" t="n" s="486">
-        <v>0.81</v>
-      </c>
-      <c r="E14" t="n" s="487">
-        <v>-0.01</v>
-      </c>
-      <c r="F14" t="n" s="488">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="479">
-        <v>75</v>
-      </c>
-      <c r="B15" t="n" s="484">
-        <v>-0.01</v>
-      </c>
-      <c r="C15" t="n" s="485">
-        <v>0.88</v>
-      </c>
-      <c r="D15" t="n" s="486">
-        <v>-0.04</v>
-      </c>
-      <c r="E15" t="n" s="487">
-        <v>-0.06</v>
-      </c>
-      <c r="F15" t="n" s="488">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="479">
-        <v>76</v>
-      </c>
-      <c r="B16" t="n" s="484">
-        <v>-0.05</v>
-      </c>
-      <c r="C16" t="n" s="485">
-        <v>0.82</v>
-      </c>
-      <c r="D16" t="n" s="486">
-        <v>0.03</v>
-      </c>
-      <c r="E16" t="n" s="487">
-        <v>0.06</v>
-      </c>
-      <c r="F16" t="n" s="488">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="479">
-        <v>77</v>
-      </c>
-      <c r="B17" t="n" s="484">
-        <v>0.03</v>
-      </c>
-      <c r="C17" t="n" s="485">
-        <v>0.79</v>
-      </c>
-      <c r="D17" t="n" s="486">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n" s="487">
-        <v>0.03</v>
-      </c>
-      <c r="F17" t="n" s="488">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="479">
-        <v>78</v>
-      </c>
-      <c r="B18" t="n" s="484">
-        <v>0.02</v>
-      </c>
-      <c r="C18" t="n" s="485">
-        <v>0.04</v>
-      </c>
-      <c r="D18" t="n" s="486">
-        <v>0.15</v>
-      </c>
-      <c r="E18" t="n" s="487">
-        <v>0.61</v>
-      </c>
-      <c r="F18" t="n" s="488">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="479">
-        <v>79</v>
-      </c>
-      <c r="B19" t="n" s="484">
-        <v>0.15</v>
-      </c>
-      <c r="C19" t="n" s="485">
-        <v>0.04</v>
-      </c>
-      <c r="D19" t="n" s="486">
-        <v>-0.12</v>
-      </c>
-      <c r="E19" t="n" s="487">
-        <v>0.73</v>
-      </c>
-      <c r="F19" t="n" s="488">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="479">
-        <v>80</v>
-      </c>
-      <c r="B20" t="n" s="484">
-        <v>-0.03</v>
-      </c>
-      <c r="C20" t="n" s="485">
-        <v>-0.05</v>
-      </c>
-      <c r="D20" t="n" s="486">
-        <v>-0.01</v>
-      </c>
-      <c r="E20" t="n" s="487">
-        <v>0.59</v>
-      </c>
-      <c r="F20" t="n" s="488">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="479">
-        <v>81</v>
-      </c>
-      <c r="B21" t="n" s="484">
-        <v>-0.09</v>
-      </c>
-      <c r="C21" t="n" s="485">
-        <v>-0.02</v>
-      </c>
-      <c r="D21" t="n" s="486">
-        <v>0.02</v>
-      </c>
-      <c r="E21" t="n" s="487">
-        <v>0.64</v>
-      </c>
-      <c r="F21" t="n" s="488">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="492">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="s" s="506">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s" s="506">
-        <v>99</v>
-      </c>
-      <c r="D25" t="s" s="506">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s" s="506">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s" s="506">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="502">
-        <v>104</v>
-      </c>
-      <c r="B26" t="n" s="507">
-        <v>2.9</v>
-      </c>
-      <c r="C26" t="n" s="508">
-        <v>2.1</v>
-      </c>
-      <c r="D26" t="n" s="509">
-        <v>2.04</v>
-      </c>
-      <c r="E26" t="n" s="510">
-        <v>1.76</v>
-      </c>
-      <c r="F26" t="n" s="511">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="502">
-        <v>105</v>
-      </c>
-      <c r="B27" t="n" s="507">
-        <v>0.18</v>
-      </c>
-      <c r="C27" t="n" s="508">
-        <v>0.13</v>
-      </c>
-      <c r="D27" t="n" s="509">
-        <v>0.13</v>
-      </c>
-      <c r="E27" t="n" s="510">
-        <v>0.11</v>
-      </c>
-      <c r="F27" t="n" s="511">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="502">
-        <v>106</v>
-      </c>
-      <c r="B28" t="n" s="507">
-        <v>0.18</v>
-      </c>
-      <c r="C28" t="n" s="508">
-        <v>0.31</v>
-      </c>
-      <c r="D28" t="n" s="509">
-        <v>0.44</v>
-      </c>
-      <c r="E28" t="n" s="510">
-        <v>0.55</v>
-      </c>
-      <c r="F28" t="n" s="511">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="502">
-        <v>107</v>
-      </c>
-      <c r="B29" t="n" s="507">
-        <v>0.29</v>
-      </c>
-      <c r="C29" t="n" s="508">
-        <v>0.21</v>
-      </c>
-      <c r="D29" t="n" s="509">
-        <v>0.2</v>
-      </c>
-      <c r="E29" t="n" s="510">
-        <v>0.18</v>
-      </c>
-      <c r="F29" t="n" s="511">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="502">
-        <v>108</v>
-      </c>
-      <c r="B30" t="n" s="507">
-        <v>0.29</v>
-      </c>
-      <c r="C30" t="n" s="508">
-        <v>0.5</v>
-      </c>
-      <c r="D30" t="n" s="509">
-        <v>0.7</v>
-      </c>
-      <c r="E30" t="n" s="510">
-        <v>0.88</v>
-      </c>
-      <c r="F30" t="n" s="511">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="515">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34"/>
-      <c r="B34" t="s" s="529">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="525">
-        <v>66</v>
-      </c>
-      <c r="B35" t="n" s="530">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="525">
-        <v>67</v>
-      </c>
-      <c r="B36" t="n" s="530">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="525">
-        <v>68</v>
-      </c>
-      <c r="B37" t="n" s="530">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="525">
-        <v>69</v>
-      </c>
-      <c r="B38" t="n" s="530">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="525">
-        <v>70</v>
-      </c>
-      <c r="B39" t="n" s="530">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="525">
-        <v>71</v>
-      </c>
-      <c r="B40" t="n" s="530">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="525">
-        <v>72</v>
-      </c>
-      <c r="B41" t="n" s="530">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="525">
-        <v>73</v>
-      </c>
-      <c r="B42" t="n" s="530">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="525">
-        <v>74</v>
-      </c>
-      <c r="B43" t="n" s="530">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="525">
-        <v>75</v>
-      </c>
-      <c r="B44" t="n" s="530">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="525">
-        <v>76</v>
-      </c>
-      <c r="B45" t="n" s="530">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="525">
-        <v>77</v>
-      </c>
-      <c r="B46" t="n" s="530">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="525">
-        <v>78</v>
-      </c>
-      <c r="B47" t="n" s="530">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="525">
-        <v>79</v>
-      </c>
-      <c r="B48" t="n" s="530">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="525">
-        <v>80</v>
-      </c>
-      <c r="B49" t="n" s="530">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="525">
-        <v>81</v>
-      </c>
-      <c r="B50" t="n" s="530">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="534">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="545">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A54:J58"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="547">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="561">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s" s="575">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s" s="575">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s" s="575">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s" s="575">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s" s="575">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="571">
-        <v>66</v>
-      </c>
-      <c r="B6" t="n" s="576">
-        <v>0.04</v>
-      </c>
-      <c r="C6" t="n" s="577">
-        <v>-0.07</v>
-      </c>
-      <c r="D6" t="n" s="578">
-        <v>0.81</v>
-      </c>
-      <c r="E6" t="n" s="579">
-        <v>-0.02</v>
-      </c>
-      <c r="F6" t="n" s="580">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="571">
-        <v>67</v>
-      </c>
-      <c r="B7" t="n" s="576">
-        <v>0.03</v>
-      </c>
-      <c r="C7" t="n" s="577">
-        <v>0.03</v>
-      </c>
-      <c r="D7" t="n" s="578">
-        <v>0.75</v>
-      </c>
-      <c r="E7" t="n" s="579">
-        <v>0.01</v>
-      </c>
-      <c r="F7" t="n" s="580">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="571">
-        <v>68</v>
-      </c>
-      <c r="B8" t="n" s="576">
-        <v>-0.03</v>
-      </c>
-      <c r="C8" t="n" s="577">
-        <v>0.04</v>
-      </c>
-      <c r="D8" t="n" s="578">
-        <v>0.82</v>
-      </c>
-      <c r="E8" t="n" s="579">
-        <v>0.02</v>
-      </c>
-      <c r="F8" t="n" s="580">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="571">
-        <v>72</v>
-      </c>
-      <c r="B9" t="n" s="576">
-        <v>0.85</v>
-      </c>
-      <c r="C9" t="n" s="577">
-        <v>-0.01</v>
-      </c>
-      <c r="D9" t="n" s="578">
-        <v>-0.02</v>
-      </c>
-      <c r="E9" t="n" s="579">
-        <v>0.01</v>
-      </c>
-      <c r="F9" t="n" s="580">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="571">
-        <v>73</v>
-      </c>
-      <c r="B10" t="n" s="576">
-        <v>0.79</v>
-      </c>
-      <c r="C10" t="n" s="577">
-        <v>0.01</v>
-      </c>
-      <c r="D10" t="n" s="578">
-        <v>0.02</v>
-      </c>
-      <c r="E10" t="n" s="579">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n" s="580">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="571">
-        <v>74</v>
-      </c>
-      <c r="B11" t="n" s="576">
-        <v>0.79</v>
-      </c>
-      <c r="C11" t="n" s="577">
-        <v>0.01</v>
-      </c>
-      <c r="D11" t="n" s="578">
-        <v>0.03</v>
-      </c>
-      <c r="E11" t="n" s="579">
-        <v>-0.01</v>
-      </c>
-      <c r="F11" t="n" s="580">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="571">
-        <v>75</v>
-      </c>
-      <c r="B12" t="n" s="576">
-        <v>-0.03</v>
-      </c>
-      <c r="C12" t="n" s="577">
-        <v>0.81</v>
-      </c>
-      <c r="D12" t="n" s="578">
-        <v>-0.0</v>
-      </c>
-      <c r="E12" t="n" s="579">
-        <v>-0.04</v>
-      </c>
-      <c r="F12" t="n" s="580">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="571">
-        <v>76</v>
-      </c>
-      <c r="B13" t="n" s="576">
-        <v>0.04</v>
-      </c>
-      <c r="C13" t="n" s="577">
-        <v>0.83</v>
-      </c>
-      <c r="D13" t="n" s="578">
-        <v>-0.04</v>
-      </c>
-      <c r="E13" t="n" s="579">
-        <v>0.02</v>
-      </c>
-      <c r="F13" t="n" s="580">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="571">
-        <v>77</v>
-      </c>
-      <c r="B14" t="n" s="576">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="n" s="577">
-        <v>0.78</v>
-      </c>
-      <c r="D14" t="n" s="578">
-        <v>0.04</v>
-      </c>
-      <c r="E14" t="n" s="579">
-        <v>0.02</v>
-      </c>
-      <c r="F14" t="n" s="580">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="571">
-        <v>78</v>
-      </c>
-      <c r="B15" t="n" s="576">
-        <v>0.12</v>
-      </c>
-      <c r="C15" t="n" s="577">
-        <v>-0.01</v>
-      </c>
-      <c r="D15" t="n" s="578">
-        <v>-0.08</v>
-      </c>
-      <c r="E15" t="n" s="579">
-        <v>0.75</v>
-      </c>
-      <c r="F15" t="n" s="580">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="571">
-        <v>79</v>
-      </c>
-      <c r="B16" t="n" s="576">
-        <v>-0.11</v>
-      </c>
-      <c r="C16" t="n" s="577">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="n" s="578">
-        <v>0.08</v>
-      </c>
-      <c r="E16" t="n" s="579">
-        <v>0.69</v>
-      </c>
-      <c r="F16" t="n" s="580">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="571">
-        <v>80</v>
-      </c>
-      <c r="B17" t="n" s="576">
-        <v>-0.01</v>
-      </c>
-      <c r="C17" t="n" s="577">
-        <v>-0.01</v>
-      </c>
-      <c r="D17" t="n" s="578">
-        <v>0.03</v>
-      </c>
-      <c r="E17" t="n" s="579">
-        <v>0.02</v>
-      </c>
-      <c r="F17" t="n" s="580">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="571">
-        <v>81</v>
-      </c>
-      <c r="B18" t="n" s="576">
-        <v>0.02</v>
-      </c>
-      <c r="C18" t="n" s="577">
-        <v>0.01</v>
-      </c>
-      <c r="D18" t="n" s="578">
-        <v>-0.03</v>
-      </c>
-      <c r="E18" t="n" s="579">
-        <v>0.01</v>
-      </c>
-      <c r="F18" t="n" s="580">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="584">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="598">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s" s="598">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s" s="598">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s" s="598">
-        <v>102</v>
-      </c>
-      <c r="F22" t="s" s="598">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="594">
-        <v>104</v>
-      </c>
-      <c r="B23" t="n" s="599">
-        <v>2.02</v>
-      </c>
-      <c r="C23" t="n" s="600">
-        <v>1.96</v>
-      </c>
-      <c r="D23" t="n" s="601">
-        <v>1.91</v>
-      </c>
-      <c r="E23" t="n" s="602">
-        <v>1.07</v>
-      </c>
-      <c r="F23" t="n" s="603">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="594">
-        <v>105</v>
-      </c>
-      <c r="B24" t="n" s="599">
-        <v>0.16</v>
-      </c>
-      <c r="C24" t="n" s="600">
-        <v>0.15</v>
-      </c>
-      <c r="D24" t="n" s="601">
-        <v>0.15</v>
-      </c>
-      <c r="E24" t="n" s="602">
-        <v>0.08</v>
-      </c>
-      <c r="F24" t="n" s="603">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="594">
-        <v>106</v>
-      </c>
-      <c r="B25" t="n" s="599">
-        <v>0.16</v>
-      </c>
-      <c r="C25" t="n" s="600">
-        <v>0.31</v>
-      </c>
-      <c r="D25" t="n" s="601">
-        <v>0.45</v>
-      </c>
-      <c r="E25" t="n" s="602">
-        <v>0.54</v>
-      </c>
-      <c r="F25" t="n" s="603">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="594">
-        <v>107</v>
-      </c>
-      <c r="B26" t="n" s="599">
-        <v>0.25</v>
-      </c>
-      <c r="C26" t="n" s="600">
-        <v>0.25</v>
-      </c>
-      <c r="D26" t="n" s="601">
-        <v>0.24</v>
-      </c>
-      <c r="E26" t="n" s="602">
-        <v>0.13</v>
-      </c>
-      <c r="F26" t="n" s="603">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="594">
-        <v>108</v>
-      </c>
-      <c r="B27" t="n" s="599">
-        <v>0.25</v>
-      </c>
-      <c r="C27" t="n" s="600">
-        <v>0.5</v>
-      </c>
-      <c r="D27" t="n" s="601">
-        <v>0.74</v>
-      </c>
-      <c r="E27" t="n" s="602">
-        <v>0.87</v>
-      </c>
-      <c r="F27" t="n" s="603">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="607">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="621">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="617">
-        <v>66</v>
-      </c>
-      <c r="B32" t="n" s="622">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="617">
-        <v>67</v>
-      </c>
-      <c r="B33" t="n" s="622">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="617">
-        <v>68</v>
-      </c>
-      <c r="B34" t="n" s="622">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="617">
-        <v>72</v>
-      </c>
-      <c r="B35" t="n" s="622">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="617">
-        <v>73</v>
-      </c>
-      <c r="B36" t="n" s="622">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="617">
-        <v>74</v>
-      </c>
-      <c r="B37" t="n" s="622">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="617">
-        <v>75</v>
-      </c>
-      <c r="B38" t="n" s="622">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="617">
-        <v>76</v>
-      </c>
-      <c r="B39" t="n" s="622">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="617">
-        <v>77</v>
-      </c>
-      <c r="B40" t="n" s="622">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="617">
-        <v>78</v>
-      </c>
-      <c r="B41" t="n" s="622">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="617">
-        <v>79</v>
-      </c>
-      <c r="B42" t="n" s="622">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="617">
-        <v>80</v>
-      </c>
-      <c r="B43" t="n" s="622">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="617">
-        <v>81</v>
-      </c>
-      <c r="B44" t="n" s="622">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="626">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="637">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A48:J52"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/report/efa/summary.xlsx
+++ b/report/efa/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="120">
   <si>
     <t>Multivariate Normality Tests</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>ML7</t>
+  </si>
+  <si>
+    <t>Factor correlations</t>
   </si>
   <si>
     <t>Measures of factor score adequacy</t>
@@ -407,7 +410,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="264">
+  <fonts count="308">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1348,6 +1351,36 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1393,6 +1426,18 @@
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1439,6 +1484,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1482,53 +1532,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1679,6 +1682,36 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1724,6 +1757,48 @@
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1767,6 +1842,199 @@
       <color rgb="000000"/>
       <i val="true"/>
       <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2089,7 +2357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="462">
+  <cellXfs count="536">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2383,63 +2651,63 @@
       <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2493,129 +2761,215 @@
       <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -4961,25 +5315,25 @@
         <v>66</v>
       </c>
       <c r="B6" t="n" s="206">
-        <v>0.03</v>
+        <v>0.0319</v>
       </c>
       <c r="C6" t="n" s="207">
-        <v>-0.06</v>
+        <v>-0.0636</v>
       </c>
       <c r="D6" t="n" s="208">
-        <v>1.12</v>
+        <v>1.1178</v>
       </c>
       <c r="E6" t="n" s="209">
-        <v>-0.1</v>
+        <v>-0.1047</v>
       </c>
       <c r="F6" t="n" s="210">
-        <v>0.01</v>
+        <v>0.0075</v>
       </c>
       <c r="G6" t="n" s="211">
-        <v>-0.11</v>
+        <v>-0.1144</v>
       </c>
       <c r="H6" t="n" s="212">
-        <v>-0.15</v>
+        <v>-0.1476</v>
       </c>
     </row>
     <row r="7">
@@ -4987,25 +5341,25 @@
         <v>67</v>
       </c>
       <c r="B7" t="n" s="206">
-        <v>0.0</v>
+        <v>0.0043</v>
       </c>
       <c r="C7" t="n" s="207">
-        <v>-0.01</v>
+        <v>-0.0127</v>
       </c>
       <c r="D7" t="n" s="208">
-        <v>0.82</v>
+        <v>0.8169</v>
       </c>
       <c r="E7" t="n" s="209">
-        <v>0.15</v>
+        <v>0.1515</v>
       </c>
       <c r="F7" t="n" s="210">
-        <v>0.04</v>
+        <v>0.0404</v>
       </c>
       <c r="G7" t="n" s="211">
-        <v>-0.0</v>
+        <v>-0.0014</v>
       </c>
       <c r="H7" t="n" s="212">
-        <v>-0.0</v>
+        <v>-2.0E-4</v>
       </c>
     </row>
     <row r="8">
@@ -5013,25 +5367,25 @@
         <v>68</v>
       </c>
       <c r="B8" t="n" s="206">
-        <v>-0.03</v>
+        <v>-0.0261</v>
       </c>
       <c r="C8" t="n" s="207">
-        <v>0.06</v>
+        <v>0.0613</v>
       </c>
       <c r="D8" t="n" s="208">
-        <v>0.87</v>
+        <v>0.8738</v>
       </c>
       <c r="E8" t="n" s="209">
-        <v>0.0</v>
+        <v>2.0E-4</v>
       </c>
       <c r="F8" t="n" s="210">
-        <v>-0.05</v>
+        <v>-0.0494</v>
       </c>
       <c r="G8" t="n" s="211">
-        <v>0.02</v>
+        <v>0.0152</v>
       </c>
       <c r="H8" t="n" s="212">
-        <v>0.14</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="9">
@@ -5039,25 +5393,25 @@
         <v>69</v>
       </c>
       <c r="B9" t="n" s="206">
-        <v>0.03</v>
+        <v>0.0302</v>
       </c>
       <c r="C9" t="n" s="207">
-        <v>0.01</v>
+        <v>0.0099</v>
       </c>
       <c r="D9" t="n" s="208">
-        <v>-0.08</v>
+        <v>-0.0823</v>
       </c>
       <c r="E9" t="n" s="209">
-        <v>1.02</v>
+        <v>1.0154</v>
       </c>
       <c r="F9" t="n" s="210">
-        <v>0.08</v>
+        <v>0.0813</v>
       </c>
       <c r="G9" t="n" s="211">
-        <v>-0.26</v>
+        <v>-0.2586</v>
       </c>
       <c r="H9" t="n" s="212">
-        <v>-0.31</v>
+        <v>-0.311</v>
       </c>
     </row>
     <row r="10">
@@ -5065,25 +5419,25 @@
         <v>70</v>
       </c>
       <c r="B10" t="n" s="206">
-        <v>-0.03</v>
+        <v>-0.0311</v>
       </c>
       <c r="C10" t="n" s="207">
-        <v>-0.01</v>
+        <v>-0.0128</v>
       </c>
       <c r="D10" t="n" s="208">
-        <v>0.11</v>
+        <v>0.1078</v>
       </c>
       <c r="E10" t="n" s="209">
-        <v>0.89</v>
+        <v>0.887</v>
       </c>
       <c r="F10" t="n" s="210">
-        <v>-0.09</v>
+        <v>-0.0931</v>
       </c>
       <c r="G10" t="n" s="211">
-        <v>0.13</v>
+        <v>0.1334</v>
       </c>
       <c r="H10" t="n" s="212">
-        <v>0.04</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="11">
@@ -5091,25 +5445,25 @@
         <v>71</v>
       </c>
       <c r="B11" t="n" s="206">
-        <v>-0.02</v>
+        <v>-0.0184</v>
       </c>
       <c r="C11" t="n" s="207">
-        <v>-0.06</v>
+        <v>-0.0631</v>
       </c>
       <c r="D11" t="n" s="208">
-        <v>0.03</v>
+        <v>0.0306</v>
       </c>
       <c r="E11" t="n" s="209">
-        <v>0.88</v>
+        <v>0.8814</v>
       </c>
       <c r="F11" t="n" s="210">
-        <v>-0.01</v>
+        <v>-0.0084</v>
       </c>
       <c r="G11" t="n" s="211">
-        <v>0.02</v>
+        <v>0.0173</v>
       </c>
       <c r="H11" t="n" s="212">
-        <v>0.08</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5471,25 @@
         <v>72</v>
       </c>
       <c r="B12" t="n" s="206">
-        <v>0.99</v>
+        <v>0.9879</v>
       </c>
       <c r="C12" t="n" s="207">
-        <v>-0.07</v>
+        <v>-0.0681</v>
       </c>
       <c r="D12" t="n" s="208">
-        <v>0.02</v>
+        <v>0.0179</v>
       </c>
       <c r="E12" t="n" s="209">
-        <v>-0.05</v>
+        <v>-0.0457</v>
       </c>
       <c r="F12" t="n" s="210">
-        <v>-0.03</v>
+        <v>-0.0287</v>
       </c>
       <c r="G12" t="n" s="211">
-        <v>0.05</v>
+        <v>0.0534</v>
       </c>
       <c r="H12" t="n" s="212">
-        <v>-0.08</v>
+        <v>-0.0798</v>
       </c>
     </row>
     <row r="13">
@@ -5143,25 +5497,25 @@
         <v>73</v>
       </c>
       <c r="B13" t="n" s="206">
-        <v>0.96</v>
+        <v>0.9618</v>
       </c>
       <c r="C13" t="n" s="207">
-        <v>-0.04</v>
+        <v>-0.0432</v>
       </c>
       <c r="D13" t="n" s="208">
-        <v>-0.02</v>
+        <v>-0.0158</v>
       </c>
       <c r="E13" t="n" s="209">
-        <v>0.05</v>
+        <v>0.0468</v>
       </c>
       <c r="F13" t="n" s="210">
-        <v>0.04</v>
+        <v>0.0404</v>
       </c>
       <c r="G13" t="n" s="211">
-        <v>0.01</v>
+        <v>0.0105</v>
       </c>
       <c r="H13" t="n" s="212">
-        <v>-0.03</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="14">
@@ -5169,25 +5523,25 @@
         <v>74</v>
       </c>
       <c r="B14" t="n" s="206">
-        <v>1.05</v>
+        <v>1.0479</v>
       </c>
       <c r="C14" t="n" s="207">
-        <v>0.04</v>
+        <v>0.0366</v>
       </c>
       <c r="D14" t="n" s="208">
-        <v>0.0</v>
+        <v>0.0034</v>
       </c>
       <c r="E14" t="n" s="209">
-        <v>-0.02</v>
+        <v>-0.0155</v>
       </c>
       <c r="F14" t="n" s="210">
-        <v>-0.01</v>
+        <v>-0.0146</v>
       </c>
       <c r="G14" t="n" s="211">
-        <v>-0.12</v>
+        <v>-0.1153</v>
       </c>
       <c r="H14" t="n" s="212">
-        <v>0.22</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="15">
@@ -5195,25 +5549,25 @@
         <v>75</v>
       </c>
       <c r="B15" t="n" s="206">
-        <v>-0.08</v>
+        <v>-0.0817</v>
       </c>
       <c r="C15" t="n" s="207">
-        <v>0.99</v>
+        <v>0.9929</v>
       </c>
       <c r="D15" t="n" s="208">
-        <v>-0.02</v>
+        <v>-0.0185</v>
       </c>
       <c r="E15" t="n" s="209">
-        <v>0.08</v>
+        <v>0.0776</v>
       </c>
       <c r="F15" t="n" s="210">
-        <v>-0.04</v>
+        <v>-0.0411</v>
       </c>
       <c r="G15" t="n" s="211">
-        <v>-0.11</v>
+        <v>-0.108</v>
       </c>
       <c r="H15" t="n" s="212">
-        <v>-0.08</v>
+        <v>-0.0826</v>
       </c>
     </row>
     <row r="16">
@@ -5221,25 +5575,25 @@
         <v>76</v>
       </c>
       <c r="B16" t="n" s="206">
-        <v>0.01</v>
+        <v>0.0096</v>
       </c>
       <c r="C16" t="n" s="207">
-        <v>0.93</v>
+        <v>0.9292</v>
       </c>
       <c r="D16" t="n" s="208">
-        <v>-0.11</v>
+        <v>-0.1077</v>
       </c>
       <c r="E16" t="n" s="209">
-        <v>0.02</v>
+        <v>0.0165</v>
       </c>
       <c r="F16" t="n" s="210">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G16" t="n" s="211">
-        <v>-0.02</v>
+        <v>-0.0237</v>
       </c>
       <c r="H16" t="n" s="212">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="17">
@@ -5247,25 +5601,25 @@
         <v>77</v>
       </c>
       <c r="B17" t="n" s="206">
-        <v>-0.01</v>
+        <v>-0.0099</v>
       </c>
       <c r="C17" t="n" s="207">
-        <v>0.96</v>
+        <v>0.9626</v>
       </c>
       <c r="D17" t="n" s="208">
-        <v>0.1</v>
+        <v>0.1029</v>
       </c>
       <c r="E17" t="n" s="209">
-        <v>-0.16</v>
+        <v>-0.1566</v>
       </c>
       <c r="F17" t="n" s="210">
-        <v>-0.0</v>
+        <v>-6.0E-4</v>
       </c>
       <c r="G17" t="n" s="211">
-        <v>-0.06</v>
+        <v>-0.0586</v>
       </c>
       <c r="H17" t="n" s="212">
-        <v>0.03</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="18">
@@ -5273,25 +5627,25 @@
         <v>78</v>
       </c>
       <c r="B18" t="n" s="206">
-        <v>-0.02</v>
+        <v>-0.0245</v>
       </c>
       <c r="C18" t="n" s="207">
-        <v>-0.14</v>
+        <v>-0.1368</v>
       </c>
       <c r="D18" t="n" s="208">
-        <v>-0.12</v>
+        <v>-0.118</v>
       </c>
       <c r="E18" t="n" s="209">
-        <v>-0.11</v>
+        <v>-0.1105</v>
       </c>
       <c r="F18" t="n" s="210">
-        <v>-0.08</v>
+        <v>-0.0799</v>
       </c>
       <c r="G18" t="n" s="211">
-        <v>1.13</v>
+        <v>1.1316</v>
       </c>
       <c r="H18" t="n" s="212">
-        <v>0.01</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="19">
@@ -5299,25 +5653,25 @@
         <v>79</v>
       </c>
       <c r="B19" t="n" s="206">
-        <v>-0.03</v>
+        <v>-0.0262</v>
       </c>
       <c r="C19" t="n" s="207">
-        <v>-0.02</v>
+        <v>-0.0187</v>
       </c>
       <c r="D19" t="n" s="208">
-        <v>0.06</v>
+        <v>0.0637</v>
       </c>
       <c r="E19" t="n" s="209">
-        <v>-0.01</v>
+        <v>-0.0075</v>
       </c>
       <c r="F19" t="n" s="210">
-        <v>0.12</v>
+        <v>0.1213</v>
       </c>
       <c r="G19" t="n" s="211">
-        <v>0.47</v>
+        <v>0.4658</v>
       </c>
       <c r="H19" t="n" s="212">
-        <v>0.2</v>
+        <v>0.2029</v>
       </c>
     </row>
     <row r="20">
@@ -5325,25 +5679,25 @@
         <v>80</v>
       </c>
       <c r="B20" t="n" s="206">
-        <v>-0.08</v>
+        <v>-0.0764</v>
       </c>
       <c r="C20" t="n" s="207">
-        <v>-0.08</v>
+        <v>-0.0821</v>
       </c>
       <c r="D20" t="n" s="208">
-        <v>0.06</v>
+        <v>0.0578</v>
       </c>
       <c r="E20" t="n" s="209">
-        <v>0.0</v>
+        <v>0.004</v>
       </c>
       <c r="F20" t="n" s="210">
-        <v>1.01</v>
+        <v>1.0106</v>
       </c>
       <c r="G20" t="n" s="211">
-        <v>0.04</v>
+        <v>0.0376</v>
       </c>
       <c r="H20" t="n" s="212">
-        <v>-0.24</v>
+        <v>-0.2424</v>
       </c>
     </row>
     <row r="21">
@@ -5351,25 +5705,25 @@
         <v>81</v>
       </c>
       <c r="B21" t="n" s="206">
-        <v>0.07</v>
+        <v>0.0736</v>
       </c>
       <c r="C21" t="n" s="207">
-        <v>0.08</v>
+        <v>0.0792</v>
       </c>
       <c r="D21" t="n" s="208">
-        <v>-0.07</v>
+        <v>-0.0729</v>
       </c>
       <c r="E21" t="n" s="209">
-        <v>-0.0</v>
+        <v>-0.0045</v>
       </c>
       <c r="F21" t="n" s="210">
-        <v>0.89</v>
+        <v>0.8943</v>
       </c>
       <c r="G21" t="n" s="211">
-        <v>-0.05</v>
+        <v>-0.0469</v>
       </c>
       <c r="H21" t="n" s="212">
-        <v>0.26</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="22">
@@ -5377,25 +5731,25 @@
         <v>82</v>
       </c>
       <c r="B22" t="n" s="206">
-        <v>0.08</v>
+        <v>0.0823</v>
       </c>
       <c r="C22" t="n" s="207">
-        <v>0.2</v>
+        <v>0.2005</v>
       </c>
       <c r="D22" t="n" s="208">
-        <v>0.03</v>
+        <v>0.0318</v>
       </c>
       <c r="E22" t="n" s="209">
-        <v>0.08</v>
+        <v>0.0792</v>
       </c>
       <c r="F22" t="n" s="210">
-        <v>0.0</v>
+        <v>0.0043</v>
       </c>
       <c r="G22" t="n" s="211">
-        <v>0.29</v>
+        <v>0.288</v>
       </c>
       <c r="H22" t="n" s="212">
-        <v>-0.09</v>
+        <v>-0.0917</v>
       </c>
     </row>
     <row r="23">
@@ -5416,362 +5770,583 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="230">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s" s="230">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s" s="230">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s" s="230">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s" s="230">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s" s="230">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s" s="230">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="226">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B27" t="n" s="231">
-        <v>2.96</v>
+        <v>1.0</v>
       </c>
       <c r="C27" t="n" s="232">
-        <v>2.74</v>
+        <v>0.1267</v>
       </c>
       <c r="D27" t="n" s="233">
-        <v>2.69</v>
+        <v>0.3169</v>
       </c>
       <c r="E27" t="n" s="234">
-        <v>2.59</v>
+        <v>0.3101</v>
       </c>
       <c r="F27" t="n" s="235">
-        <v>1.82</v>
+        <v>0.3233</v>
       </c>
       <c r="G27" t="n" s="236">
-        <v>1.44</v>
+        <v>0.4243</v>
       </c>
       <c r="H27" t="n" s="237">
-        <v>0.36</v>
+        <v>-0.0954</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="226">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B28" t="n" s="231">
-        <v>0.17</v>
+        <v>0.1267</v>
       </c>
       <c r="C28" t="n" s="232">
-        <v>0.16</v>
+        <v>1.0</v>
       </c>
       <c r="D28" t="n" s="233">
-        <v>0.16</v>
+        <v>0.1156</v>
       </c>
       <c r="E28" t="n" s="234">
-        <v>0.15</v>
+        <v>0.2552</v>
       </c>
       <c r="F28" t="n" s="235">
-        <v>0.11</v>
+        <v>0.1599</v>
       </c>
       <c r="G28" t="n" s="236">
-        <v>0.08</v>
+        <v>0.2633</v>
       </c>
       <c r="H28" t="n" s="237">
-        <v>0.02</v>
+        <v>-0.1589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="226">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B29" t="n" s="231">
-        <v>0.17</v>
+        <v>0.3169</v>
       </c>
       <c r="C29" t="n" s="232">
-        <v>0.34</v>
+        <v>0.1156</v>
       </c>
       <c r="D29" t="n" s="233">
-        <v>0.49</v>
+        <v>1.0</v>
       </c>
       <c r="E29" t="n" s="234">
-        <v>0.65</v>
+        <v>0.5851</v>
       </c>
       <c r="F29" t="n" s="235">
-        <v>0.75</v>
+        <v>0.3455</v>
       </c>
       <c r="G29" t="n" s="236">
-        <v>0.84</v>
+        <v>0.4314</v>
       </c>
       <c r="H29" t="n" s="237">
-        <v>0.86</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="226">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B30" t="n" s="231">
-        <v>0.2</v>
+        <v>0.3101</v>
       </c>
       <c r="C30" t="n" s="232">
-        <v>0.19</v>
+        <v>0.2552</v>
       </c>
       <c r="D30" t="n" s="233">
-        <v>0.18</v>
+        <v>0.5851</v>
       </c>
       <c r="E30" t="n" s="234">
-        <v>0.18</v>
+        <v>1.0</v>
       </c>
       <c r="F30" t="n" s="235">
-        <v>0.12</v>
+        <v>0.3467</v>
       </c>
       <c r="G30" t="n" s="236">
-        <v>0.1</v>
+        <v>0.3233</v>
       </c>
       <c r="H30" t="n" s="237">
-        <v>0.02</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="226">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B31" t="n" s="231">
-        <v>0.2</v>
+        <v>0.3233</v>
       </c>
       <c r="C31" t="n" s="232">
-        <v>0.39</v>
+        <v>0.1599</v>
       </c>
       <c r="D31" t="n" s="233">
-        <v>0.57</v>
+        <v>0.3455</v>
       </c>
       <c r="E31" t="n" s="234">
-        <v>0.75</v>
+        <v>0.3467</v>
       </c>
       <c r="F31" t="n" s="235">
-        <v>0.88</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n" s="236">
-        <v>0.98</v>
+        <v>0.4926</v>
       </c>
       <c r="H31" t="n" s="237">
+        <v>0.1609</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="226">
+        <v>96</v>
+      </c>
+      <c r="B32" t="n" s="231">
+        <v>0.4243</v>
+      </c>
+      <c r="C32" t="n" s="232">
+        <v>0.2633</v>
+      </c>
+      <c r="D32" t="n" s="233">
+        <v>0.4314</v>
+      </c>
+      <c r="E32" t="n" s="234">
+        <v>0.3233</v>
+      </c>
+      <c r="F32" t="n" s="235">
+        <v>0.4926</v>
+      </c>
+      <c r="G32" t="n" s="236">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
+      <c r="H32" t="n" s="237">
+        <v>0.1616</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="226">
+        <v>97</v>
+      </c>
+      <c r="B33" t="n" s="231">
+        <v>-0.0954</v>
+      </c>
+      <c r="C33" t="n" s="232">
+        <v>-0.1589</v>
+      </c>
+      <c r="D33" t="n" s="233">
+        <v>0.2517</v>
+      </c>
+      <c r="E33" t="n" s="234">
+        <v>0.056</v>
+      </c>
+      <c r="F33" t="n" s="235">
+        <v>0.1609</v>
+      </c>
+      <c r="G33" t="n" s="236">
+        <v>0.1616</v>
+      </c>
+      <c r="H33" t="n" s="237">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
+    <row r="35">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="241">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35"/>
-      <c r="B35" t="s" s="255">
-        <v>112</v>
-      </c>
-    </row>
     <row r="36">
-      <c r="A36" t="s" s="251">
-        <v>66</v>
-      </c>
-      <c r="B36" t="n" s="256">
-        <v>1.08</v>
+      <c r="A36" t="s" s="241">
+        <v>99</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="251">
-        <v>67</v>
-      </c>
-      <c r="B37" t="n" s="256">
-        <v>1.07</v>
+      <c r="A37"/>
+      <c r="B37" t="s" s="255">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s" s="255">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s" s="255">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s" s="255">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s" s="255">
+        <v>104</v>
+      </c>
+      <c r="G37" t="s" s="255">
+        <v>105</v>
+      </c>
+      <c r="H37" t="s" s="255">
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="251">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B38" t="n" s="256">
-        <v>1.07</v>
+        <v>2.9566</v>
+      </c>
+      <c r="C38" t="n" s="257">
+        <v>2.7431</v>
+      </c>
+      <c r="D38" t="n" s="258">
+        <v>2.686</v>
+      </c>
+      <c r="E38" t="n" s="259">
+        <v>2.592</v>
+      </c>
+      <c r="F38" t="n" s="260">
+        <v>1.8236</v>
+      </c>
+      <c r="G38" t="n" s="261">
+        <v>1.442</v>
+      </c>
+      <c r="H38" t="n" s="262">
+        <v>0.3637</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="251">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B39" t="n" s="256">
-        <v>1.36</v>
+        <v>0.1739</v>
+      </c>
+      <c r="C39" t="n" s="257">
+        <v>0.1614</v>
+      </c>
+      <c r="D39" t="n" s="258">
+        <v>0.158</v>
+      </c>
+      <c r="E39" t="n" s="259">
+        <v>0.1525</v>
+      </c>
+      <c r="F39" t="n" s="260">
+        <v>0.1073</v>
+      </c>
+      <c r="G39" t="n" s="261">
+        <v>0.0848</v>
+      </c>
+      <c r="H39" t="n" s="262">
+        <v>0.0214</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="251">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B40" t="n" s="256">
-        <v>1.11</v>
+        <v>0.1739</v>
+      </c>
+      <c r="C40" t="n" s="257">
+        <v>0.3353</v>
+      </c>
+      <c r="D40" t="n" s="258">
+        <v>0.4933</v>
+      </c>
+      <c r="E40" t="n" s="259">
+        <v>0.6457</v>
+      </c>
+      <c r="F40" t="n" s="260">
+        <v>0.753</v>
+      </c>
+      <c r="G40" t="n" s="261">
+        <v>0.8378</v>
+      </c>
+      <c r="H40" t="n" s="262">
+        <v>0.8592</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="251">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B41" t="n" s="256">
-        <v>1.03</v>
+        <v>0.2024</v>
+      </c>
+      <c r="C41" t="n" s="257">
+        <v>0.1878</v>
+      </c>
+      <c r="D41" t="n" s="258">
+        <v>0.1839</v>
+      </c>
+      <c r="E41" t="n" s="259">
+        <v>0.1774</v>
+      </c>
+      <c r="F41" t="n" s="260">
+        <v>0.1248</v>
+      </c>
+      <c r="G41" t="n" s="261">
+        <v>0.0987</v>
+      </c>
+      <c r="H41" t="n" s="262">
+        <v>0.0249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="251">
+        <v>111</v>
+      </c>
+      <c r="B42" t="n" s="256">
+        <v>0.2024</v>
+      </c>
+      <c r="C42" t="n" s="257">
+        <v>0.3902</v>
+      </c>
+      <c r="D42" t="n" s="258">
+        <v>0.5741</v>
+      </c>
+      <c r="E42" t="n" s="259">
+        <v>0.7515</v>
+      </c>
+      <c r="F42" t="n" s="260">
+        <v>0.8764</v>
+      </c>
+      <c r="G42" t="n" s="261">
+        <v>0.9751</v>
+      </c>
+      <c r="H42" t="n" s="262">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="266">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46" t="s" s="280">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="276">
+        <v>66</v>
+      </c>
+      <c r="B47" t="n" s="281">
+        <v>1.0826</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="276">
+        <v>67</v>
+      </c>
+      <c r="B48" t="n" s="281">
+        <v>1.0743</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="276">
+        <v>68</v>
+      </c>
+      <c r="B49" t="n" s="281">
+        <v>1.0693</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="276">
+        <v>69</v>
+      </c>
+      <c r="B50" t="n" s="281">
+        <v>1.3574</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="276">
+        <v>70</v>
+      </c>
+      <c r="B51" t="n" s="281">
+        <v>1.1055</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="276">
+        <v>71</v>
+      </c>
+      <c r="B52" t="n" s="281">
+        <v>1.0315</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="276">
         <v>72</v>
       </c>
-      <c r="B42" t="n" s="256">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="251">
+      <c r="B53" t="n" s="281">
+        <v>1.0352</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="276">
         <v>73</v>
       </c>
-      <c r="B43" t="n" s="256">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="251">
+      <c r="B54" t="n" s="281">
+        <v>1.0154</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="276">
         <v>74</v>
       </c>
-      <c r="B44" t="n" s="256">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="251">
+      <c r="B55" t="n" s="281">
+        <v>1.116</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="276">
         <v>75</v>
       </c>
-      <c r="B45" t="n" s="256">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="251">
+      <c r="B56" t="n" s="281">
+        <v>1.0682</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="276">
         <v>76</v>
       </c>
-      <c r="B46" t="n" s="256">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="251">
+      <c r="B57" t="n" s="281">
+        <v>1.0345</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="276">
         <v>77</v>
       </c>
-      <c r="B47" t="n" s="256">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="251">
+      <c r="B58" t="n" s="281">
+        <v>1.0863</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="276">
         <v>78</v>
       </c>
-      <c r="B48" t="n" s="256">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="251">
+      <c r="B59" t="n" s="281">
+        <v>1.0824</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="276">
         <v>79</v>
       </c>
-      <c r="B49" t="n" s="256">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="251">
+      <c r="B60" t="n" s="281">
+        <v>1.5769</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="276">
         <v>80</v>
       </c>
-      <c r="B50" t="n" s="256">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="251">
+      <c r="B61" t="n" s="281">
+        <v>1.1507</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="276">
         <v>81</v>
       </c>
-      <c r="B51" t="n" s="256">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="251">
+      <c r="B62" t="n" s="281">
+        <v>1.2172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="276">
         <v>82</v>
       </c>
-      <c r="B52" t="n" s="256">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
+      <c r="B63" t="n" s="281">
+        <v>2.4508</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
+    <row r="65">
+      <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="260">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="271">
+    <row r="66">
+      <c r="A66" t="s" s="285">
         <v>114</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
+    <row r="67">
+      <c r="A67" t="s" s="296">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
+    <row r="69">
+      <c r="A69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="70">
+      <c r="A70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
+    <row r="71">
+      <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
+    <row r="72">
+      <c r="A72" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A56:J60"/>
+    <mergeCell ref="A67:J71"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5796,8 +6371,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="273">
-        <v>115</v>
+      <c r="A1" t="s" s="298">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -5811,448 +6386,448 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="287">
+      <c r="A4" t="s" s="312">
         <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
-      <c r="B5" t="s" s="301">
+      <c r="B5" t="s" s="326">
         <v>91</v>
       </c>
-      <c r="C5" t="s" s="301">
+      <c r="C5" t="s" s="326">
         <v>92</v>
       </c>
-      <c r="D5" t="s" s="301">
+      <c r="D5" t="s" s="326">
         <v>93</v>
       </c>
-      <c r="E5" t="s" s="301">
+      <c r="E5" t="s" s="326">
         <v>94</v>
       </c>
-      <c r="F5" t="s" s="301">
+      <c r="F5" t="s" s="326">
         <v>95</v>
       </c>
-      <c r="G5" t="s" s="301">
+      <c r="G5" t="s" s="326">
         <v>96</v>
       </c>
-      <c r="H5" t="s" s="301">
+      <c r="H5" t="s" s="326">
         <v>97</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="297">
+      <c r="A6" t="s" s="322">
         <v>66</v>
       </c>
-      <c r="B6" t="n" s="302">
-        <v>0.04</v>
-      </c>
-      <c r="C6" t="n" s="303">
-        <v>-0.03</v>
-      </c>
-      <c r="D6" t="n" s="304">
-        <v>1.11</v>
-      </c>
-      <c r="E6" t="n" s="305">
-        <v>-0.09</v>
-      </c>
-      <c r="F6" t="n" s="306">
+      <c r="B6" t="n" s="327">
+        <v>0.0437</v>
+      </c>
+      <c r="C6" t="n" s="328">
+        <v>-0.029</v>
+      </c>
+      <c r="D6" t="n" s="329">
+        <v>1.1082</v>
+      </c>
+      <c r="E6" t="n" s="330">
+        <v>-0.0889</v>
+      </c>
+      <c r="F6" t="n" s="331">
+        <v>0.0086</v>
+      </c>
+      <c r="G6" t="n" s="332">
+        <v>-0.052</v>
+      </c>
+      <c r="H6" t="n" s="333">
+        <v>-0.1702</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="322">
+        <v>67</v>
+      </c>
+      <c r="B7" t="n" s="327">
         <v>0.01</v>
       </c>
-      <c r="G6" t="n" s="307">
-        <v>-0.05</v>
-      </c>
-      <c r="H6" t="n" s="308">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="297">
-        <v>67</v>
-      </c>
-      <c r="B7" t="n" s="302">
-        <v>0.01</v>
-      </c>
-      <c r="C7" t="n" s="303">
-        <v>-0.0</v>
-      </c>
-      <c r="D7" t="n" s="304">
-        <v>0.8</v>
-      </c>
-      <c r="E7" t="n" s="305">
-        <v>0.16</v>
-      </c>
-      <c r="F7" t="n" s="306">
-        <v>0.04</v>
-      </c>
-      <c r="G7" t="n" s="307">
-        <v>0.01</v>
-      </c>
-      <c r="H7" t="n" s="308">
-        <v>0.01</v>
+      <c r="C7" t="n" s="328">
+        <v>-0.0021</v>
+      </c>
+      <c r="D7" t="n" s="329">
+        <v>0.8036</v>
+      </c>
+      <c r="E7" t="n" s="330">
+        <v>0.1587</v>
+      </c>
+      <c r="F7" t="n" s="331">
+        <v>0.0414</v>
+      </c>
+      <c r="G7" t="n" s="332">
+        <v>0.0091</v>
+      </c>
+      <c r="H7" t="n" s="333">
+        <v>0.0086</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="297">
+      <c r="A8" t="s" s="322">
         <v>68</v>
       </c>
-      <c r="B8" t="n" s="302">
-        <v>-0.03</v>
-      </c>
-      <c r="C8" t="n" s="303">
-        <v>0.04</v>
-      </c>
-      <c r="D8" t="n" s="304">
-        <v>0.85</v>
-      </c>
-      <c r="E8" t="n" s="305">
-        <v>-0.01</v>
-      </c>
-      <c r="F8" t="n" s="306">
-        <v>-0.05</v>
-      </c>
-      <c r="G8" t="n" s="307">
-        <v>-0.0</v>
-      </c>
-      <c r="H8" t="n" s="308">
-        <v>0.15</v>
+      <c r="B8" t="n" s="327">
+        <v>-0.0315</v>
+      </c>
+      <c r="C8" t="n" s="328">
+        <v>0.0416</v>
+      </c>
+      <c r="D8" t="n" s="329">
+        <v>0.8546</v>
+      </c>
+      <c r="E8" t="n" s="330">
+        <v>-0.0055</v>
+      </c>
+      <c r="F8" t="n" s="331">
+        <v>-0.0486</v>
+      </c>
+      <c r="G8" t="n" s="332">
+        <v>-0.0042</v>
+      </c>
+      <c r="H8" t="n" s="333">
+        <v>0.1484</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="297">
+      <c r="A9" t="s" s="322">
         <v>69</v>
       </c>
-      <c r="B9" t="n" s="302">
-        <v>0.05</v>
-      </c>
-      <c r="C9" t="n" s="303">
-        <v>0.06</v>
-      </c>
-      <c r="D9" t="n" s="304">
-        <v>-0.07</v>
-      </c>
-      <c r="E9" t="n" s="305">
-        <v>1.02</v>
-      </c>
-      <c r="F9" t="n" s="306">
-        <v>0.09</v>
-      </c>
-      <c r="G9" t="n" s="307">
-        <v>-0.15</v>
-      </c>
-      <c r="H9" t="n" s="308">
-        <v>-0.34</v>
+      <c r="B9" t="n" s="327">
+        <v>0.0537</v>
+      </c>
+      <c r="C9" t="n" s="328">
+        <v>0.0553</v>
+      </c>
+      <c r="D9" t="n" s="329">
+        <v>-0.0656</v>
+      </c>
+      <c r="E9" t="n" s="330">
+        <v>1.0172</v>
+      </c>
+      <c r="F9" t="n" s="331">
+        <v>0.0863</v>
+      </c>
+      <c r="G9" t="n" s="332">
+        <v>-0.152</v>
+      </c>
+      <c r="H9" t="n" s="333">
+        <v>-0.3443</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="297">
+      <c r="A10" t="s" s="322">
         <v>70</v>
       </c>
-      <c r="B10" t="n" s="302">
-        <v>-0.02</v>
-      </c>
-      <c r="C10" t="n" s="303">
-        <v>0.01</v>
-      </c>
-      <c r="D10" t="n" s="304">
-        <v>0.1</v>
-      </c>
-      <c r="E10" t="n" s="305">
-        <v>0.9</v>
-      </c>
-      <c r="F10" t="n" s="306">
-        <v>-0.09</v>
-      </c>
-      <c r="G10" t="n" s="307">
-        <v>0.13</v>
-      </c>
-      <c r="H10" t="n" s="308">
-        <v>0.05</v>
+      <c r="B10" t="n" s="327">
+        <v>-0.0204</v>
+      </c>
+      <c r="C10" t="n" s="328">
+        <v>0.0114</v>
+      </c>
+      <c r="D10" t="n" s="329">
+        <v>0.1012</v>
+      </c>
+      <c r="E10" t="n" s="330">
+        <v>0.8976</v>
+      </c>
+      <c r="F10" t="n" s="331">
+        <v>-0.0945</v>
+      </c>
+      <c r="G10" t="n" s="332">
+        <v>0.1277</v>
+      </c>
+      <c r="H10" t="n" s="333">
+        <v>0.051</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="297">
+      <c r="A11" t="s" s="322">
         <v>71</v>
       </c>
-      <c r="B11" t="n" s="302">
-        <v>-0.02</v>
-      </c>
-      <c r="C11" t="n" s="303">
-        <v>-0.06</v>
-      </c>
-      <c r="D11" t="n" s="304">
-        <v>0.03</v>
-      </c>
-      <c r="E11" t="n" s="305">
-        <v>0.87</v>
-      </c>
-      <c r="F11" t="n" s="306">
-        <v>-0.01</v>
-      </c>
-      <c r="G11" t="n" s="307">
-        <v>0.01</v>
-      </c>
-      <c r="H11" t="n" s="308">
-        <v>0.08</v>
+      <c r="B11" t="n" s="327">
+        <v>-0.0206</v>
+      </c>
+      <c r="C11" t="n" s="328">
+        <v>-0.063</v>
+      </c>
+      <c r="D11" t="n" s="329">
+        <v>0.0297</v>
+      </c>
+      <c r="E11" t="n" s="330">
+        <v>0.8653</v>
+      </c>
+      <c r="F11" t="n" s="331">
+        <v>-0.0113</v>
+      </c>
+      <c r="G11" t="n" s="332">
+        <v>0.0103</v>
+      </c>
+      <c r="H11" t="n" s="333">
+        <v>0.0793</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="297">
+      <c r="A12" t="s" s="322">
         <v>72</v>
       </c>
-      <c r="B12" t="n" s="302">
-        <v>0.98</v>
-      </c>
-      <c r="C12" t="n" s="303">
-        <v>-0.01</v>
-      </c>
-      <c r="D12" t="n" s="304">
-        <v>0.03</v>
-      </c>
-      <c r="E12" t="n" s="305">
-        <v>-0.02</v>
-      </c>
-      <c r="F12" t="n" s="306">
-        <v>-0.03</v>
-      </c>
-      <c r="G12" t="n" s="307">
-        <v>0.1</v>
-      </c>
-      <c r="H12" t="n" s="308">
-        <v>-0.08</v>
+      <c r="B12" t="n" s="327">
+        <v>0.9767</v>
+      </c>
+      <c r="C12" t="n" s="328">
+        <v>-0.0087</v>
+      </c>
+      <c r="D12" t="n" s="329">
+        <v>0.0292</v>
+      </c>
+      <c r="E12" t="n" s="330">
+        <v>-0.0183</v>
+      </c>
+      <c r="F12" t="n" s="331">
+        <v>-0.0256</v>
+      </c>
+      <c r="G12" t="n" s="332">
+        <v>0.1023</v>
+      </c>
+      <c r="H12" t="n" s="333">
+        <v>-0.0813</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="297">
+      <c r="A13" t="s" s="322">
         <v>73</v>
       </c>
-      <c r="B13" t="n" s="302">
-        <v>0.94</v>
-      </c>
-      <c r="C13" t="n" s="303">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n" s="304">
-        <v>-0.01</v>
-      </c>
-      <c r="E13" t="n" s="305">
-        <v>0.07</v>
-      </c>
-      <c r="F13" t="n" s="306">
-        <v>0.04</v>
-      </c>
-      <c r="G13" t="n" s="307">
-        <v>0.05</v>
-      </c>
-      <c r="H13" t="n" s="308">
-        <v>-0.02</v>
+      <c r="B13" t="n" s="327">
+        <v>0.9443</v>
+      </c>
+      <c r="C13" t="n" s="328">
+        <v>1.0E-4</v>
+      </c>
+      <c r="D13" t="n" s="329">
+        <v>-0.0086</v>
+      </c>
+      <c r="E13" t="n" s="330">
+        <v>0.0667</v>
+      </c>
+      <c r="F13" t="n" s="331">
+        <v>0.0408</v>
+      </c>
+      <c r="G13" t="n" s="332">
+        <v>0.0523</v>
+      </c>
+      <c r="H13" t="n" s="333">
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="297">
+      <c r="A14" t="s" s="322">
         <v>74</v>
       </c>
-      <c r="B14" t="n" s="302">
-        <v>1.0</v>
-      </c>
-      <c r="C14" t="n" s="303">
-        <v>0.01</v>
-      </c>
-      <c r="D14" t="n" s="304">
-        <v>-0.0</v>
-      </c>
-      <c r="E14" t="n" s="305">
-        <v>-0.03</v>
-      </c>
-      <c r="F14" t="n" s="306">
-        <v>-0.02</v>
-      </c>
-      <c r="G14" t="n" s="307">
-        <v>-0.12</v>
-      </c>
-      <c r="H14" t="n" s="308">
-        <v>0.26</v>
+      <c r="B14" t="n" s="327">
+        <v>0.995</v>
+      </c>
+      <c r="C14" t="n" s="328">
+        <v>0.0053</v>
+      </c>
+      <c r="D14" t="n" s="329">
+        <v>-0.0013</v>
+      </c>
+      <c r="E14" t="n" s="330">
+        <v>-0.0303</v>
+      </c>
+      <c r="F14" t="n" s="331">
+        <v>-0.0175</v>
+      </c>
+      <c r="G14" t="n" s="332">
+        <v>-0.1226</v>
+      </c>
+      <c r="H14" t="n" s="333">
+        <v>0.256</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="297">
+      <c r="A15" t="s" s="322">
         <v>75</v>
       </c>
-      <c r="B15" t="n" s="302">
-        <v>-0.05</v>
-      </c>
-      <c r="C15" t="n" s="303">
-        <v>0.98</v>
-      </c>
-      <c r="D15" t="n" s="304">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="n" s="305">
-        <v>0.1</v>
-      </c>
-      <c r="F15" t="n" s="306">
-        <v>-0.04</v>
-      </c>
-      <c r="G15" t="n" s="307">
-        <v>-0.02</v>
-      </c>
-      <c r="H15" t="n" s="308">
-        <v>-0.09</v>
+      <c r="B15" t="n" s="327">
+        <v>-0.0488</v>
+      </c>
+      <c r="C15" t="n" s="328">
+        <v>0.9817</v>
+      </c>
+      <c r="D15" t="n" s="329">
+        <v>8.0E-4</v>
+      </c>
+      <c r="E15" t="n" s="330">
+        <v>0.0996</v>
+      </c>
+      <c r="F15" t="n" s="331">
+        <v>-0.0356</v>
+      </c>
+      <c r="G15" t="n" s="332">
+        <v>-0.0199</v>
+      </c>
+      <c r="H15" t="n" s="333">
+        <v>-0.0939</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="297">
+      <c r="A16" t="s" s="322">
         <v>76</v>
       </c>
-      <c r="B16" t="n" s="302">
-        <v>0.03</v>
-      </c>
-      <c r="C16" t="n" s="303">
-        <v>0.91</v>
-      </c>
-      <c r="D16" t="n" s="304">
-        <v>-0.1</v>
-      </c>
-      <c r="E16" t="n" s="305">
-        <v>0.04</v>
-      </c>
-      <c r="F16" t="n" s="306">
-        <v>0.03</v>
-      </c>
-      <c r="G16" t="n" s="307">
-        <v>0.03</v>
-      </c>
-      <c r="H16" t="n" s="308">
-        <v>0.05</v>
+      <c r="B16" t="n" s="327">
+        <v>0.0304</v>
+      </c>
+      <c r="C16" t="n" s="328">
+        <v>0.9097</v>
+      </c>
+      <c r="D16" t="n" s="329">
+        <v>-0.0989</v>
+      </c>
+      <c r="E16" t="n" s="330">
+        <v>0.0415</v>
+      </c>
+      <c r="F16" t="n" s="331">
+        <v>0.0332</v>
+      </c>
+      <c r="G16" t="n" s="332">
+        <v>0.0316</v>
+      </c>
+      <c r="H16" t="n" s="333">
+        <v>0.0457</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="297">
+      <c r="A17" t="s" s="322">
         <v>77</v>
       </c>
-      <c r="B17" t="n" s="302">
-        <v>0.01</v>
-      </c>
-      <c r="C17" t="n" s="303">
-        <v>0.94</v>
-      </c>
-      <c r="D17" t="n" s="304">
-        <v>0.11</v>
-      </c>
-      <c r="E17" t="n" s="305">
-        <v>-0.13</v>
-      </c>
-      <c r="F17" t="n" s="306">
-        <v>-0.0</v>
-      </c>
-      <c r="G17" t="n" s="307">
-        <v>-0.0</v>
-      </c>
-      <c r="H17" t="n" s="308">
-        <v>0.04</v>
+      <c r="B17" t="n" s="327">
+        <v>0.0107</v>
+      </c>
+      <c r="C17" t="n" s="328">
+        <v>0.9369</v>
+      </c>
+      <c r="D17" t="n" s="329">
+        <v>0.1061</v>
+      </c>
+      <c r="E17" t="n" s="330">
+        <v>-0.1301</v>
+      </c>
+      <c r="F17" t="n" s="331">
+        <v>-4.0E-4</v>
+      </c>
+      <c r="G17" t="n" s="332">
+        <v>-4.0E-4</v>
+      </c>
+      <c r="H17" t="n" s="333">
+        <v>0.043</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="297">
+      <c r="A18" t="s" s="322">
         <v>78</v>
       </c>
-      <c r="B18" t="n" s="302">
-        <v>0.05</v>
-      </c>
-      <c r="C18" t="n" s="303">
-        <v>0.01</v>
-      </c>
-      <c r="D18" t="n" s="304">
-        <v>-0.08</v>
-      </c>
-      <c r="E18" t="n" s="305">
-        <v>-0.04</v>
-      </c>
-      <c r="F18" t="n" s="306">
-        <v>-0.07</v>
-      </c>
-      <c r="G18" t="n" s="307">
-        <v>1.05</v>
-      </c>
-      <c r="H18" t="n" s="308">
-        <v>-0.02</v>
+      <c r="B18" t="n" s="327">
+        <v>0.0452</v>
+      </c>
+      <c r="C18" t="n" s="328">
+        <v>0.0116</v>
+      </c>
+      <c r="D18" t="n" s="329">
+        <v>-0.083</v>
+      </c>
+      <c r="E18" t="n" s="330">
+        <v>-0.0351</v>
+      </c>
+      <c r="F18" t="n" s="331">
+        <v>-0.0707</v>
+      </c>
+      <c r="G18" t="n" s="332">
+        <v>1.0482</v>
+      </c>
+      <c r="H18" t="n" s="333">
+        <v>-0.0157</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="297">
+      <c r="A19" t="s" s="322">
         <v>79</v>
       </c>
-      <c r="B19" t="n" s="302">
-        <v>-0.02</v>
-      </c>
-      <c r="C19" t="n" s="303">
-        <v>0.0</v>
-      </c>
-      <c r="D19" t="n" s="304">
-        <v>0.07</v>
-      </c>
-      <c r="E19" t="n" s="305">
-        <v>0.01</v>
-      </c>
-      <c r="F19" t="n" s="306">
-        <v>0.12</v>
-      </c>
-      <c r="G19" t="n" s="307">
-        <v>0.39</v>
-      </c>
-      <c r="H19" t="n" s="308">
-        <v>0.22</v>
+      <c r="B19" t="n" s="327">
+        <v>-0.0166</v>
+      </c>
+      <c r="C19" t="n" s="328">
+        <v>1.0E-4</v>
+      </c>
+      <c r="D19" t="n" s="329">
+        <v>0.0666</v>
+      </c>
+      <c r="E19" t="n" s="330">
+        <v>0.0053</v>
+      </c>
+      <c r="F19" t="n" s="331">
+        <v>0.1182</v>
+      </c>
+      <c r="G19" t="n" s="332">
+        <v>0.386</v>
+      </c>
+      <c r="H19" t="n" s="333">
+        <v>0.2241</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="297">
+      <c r="A20" t="s" s="322">
         <v>80</v>
       </c>
-      <c r="B20" t="n" s="302">
-        <v>-0.05</v>
-      </c>
-      <c r="C20" t="n" s="303">
-        <v>-0.02</v>
-      </c>
-      <c r="D20" t="n" s="304">
-        <v>0.07</v>
-      </c>
-      <c r="E20" t="n" s="305">
-        <v>0.03</v>
-      </c>
-      <c r="F20" t="n" s="306">
-        <v>1.0</v>
-      </c>
-      <c r="G20" t="n" s="307">
-        <v>0.09</v>
-      </c>
-      <c r="H20" t="n" s="308">
-        <v>-0.23</v>
+      <c r="B20" t="n" s="327">
+        <v>-0.0453</v>
+      </c>
+      <c r="C20" t="n" s="328">
+        <v>-0.0195</v>
+      </c>
+      <c r="D20" t="n" s="329">
+        <v>0.0685</v>
+      </c>
+      <c r="E20" t="n" s="330">
+        <v>0.0285</v>
+      </c>
+      <c r="F20" t="n" s="331">
+        <v>0.9977</v>
+      </c>
+      <c r="G20" t="n" s="332">
+        <v>0.094</v>
+      </c>
+      <c r="H20" t="n" s="333">
+        <v>-0.2303</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="297">
+      <c r="A21" t="s" s="322">
         <v>81</v>
       </c>
-      <c r="B21" t="n" s="302">
-        <v>0.04</v>
-      </c>
-      <c r="C21" t="n" s="303">
-        <v>0.02</v>
-      </c>
-      <c r="D21" t="n" s="304">
-        <v>-0.08</v>
-      </c>
-      <c r="E21" t="n" s="305">
-        <v>-0.03</v>
-      </c>
-      <c r="F21" t="n" s="306">
-        <v>0.87</v>
-      </c>
-      <c r="G21" t="n" s="307">
-        <v>-0.1</v>
-      </c>
-      <c r="H21" t="n" s="308">
-        <v>0.33</v>
+      <c r="B21" t="n" s="327">
+        <v>0.044</v>
+      </c>
+      <c r="C21" t="n" s="328">
+        <v>0.0199</v>
+      </c>
+      <c r="D21" t="n" s="329">
+        <v>-0.0828</v>
+      </c>
+      <c r="E21" t="n" s="330">
+        <v>-0.0313</v>
+      </c>
+      <c r="F21" t="n" s="331">
+        <v>0.8707</v>
+      </c>
+      <c r="G21" t="n" s="332">
+        <v>-0.0954</v>
+      </c>
+      <c r="H21" t="n" s="333">
+        <v>0.3272</v>
       </c>
     </row>
     <row r="22">
@@ -6266,361 +6841,582 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="312">
+      <c r="A24" t="s" s="337">
         <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
-      <c r="B25" t="s" s="326">
+      <c r="B25" t="s" s="351">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s" s="351">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s" s="351">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s" s="351">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s" s="351">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s" s="351">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s" s="351">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="347">
+        <v>91</v>
+      </c>
+      <c r="B26" t="n" s="352">
+        <v>1.0</v>
+      </c>
+      <c r="C26" t="n" s="353">
+        <v>0.0242</v>
+      </c>
+      <c r="D26" t="n" s="354">
+        <v>0.2758</v>
+      </c>
+      <c r="E26" t="n" s="355">
+        <v>0.2679</v>
+      </c>
+      <c r="F26" t="n" s="356">
+        <v>0.293</v>
+      </c>
+      <c r="G26" t="n" s="357">
+        <v>0.2958</v>
+      </c>
+      <c r="H26" t="n" s="358">
+        <v>0.1183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="347">
+        <v>92</v>
+      </c>
+      <c r="B27" t="n" s="352">
+        <v>0.0242</v>
+      </c>
+      <c r="C27" t="n" s="353">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n" s="354">
+        <v>0.0367</v>
+      </c>
+      <c r="E27" t="n" s="355">
+        <v>0.1878</v>
+      </c>
+      <c r="F27" t="n" s="356">
+        <v>0.1001</v>
+      </c>
+      <c r="G27" t="n" s="357">
+        <v>0.0232</v>
+      </c>
+      <c r="H27" t="n" s="358">
+        <v>0.0739</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="347">
+        <v>93</v>
+      </c>
+      <c r="B28" t="n" s="352">
+        <v>0.2758</v>
+      </c>
+      <c r="C28" t="n" s="353">
+        <v>0.0367</v>
+      </c>
+      <c r="D28" t="n" s="354">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="355">
+        <v>0.5708</v>
+      </c>
+      <c r="F28" t="n" s="356">
+        <v>0.3209</v>
+      </c>
+      <c r="G28" t="n" s="357">
+        <v>0.345</v>
+      </c>
+      <c r="H28" t="n" s="358">
+        <v>0.4489</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="347">
+        <v>94</v>
+      </c>
+      <c r="B29" t="n" s="352">
+        <v>0.2679</v>
+      </c>
+      <c r="C29" t="n" s="353">
+        <v>0.1878</v>
+      </c>
+      <c r="D29" t="n" s="354">
+        <v>0.5708</v>
+      </c>
+      <c r="E29" t="n" s="355">
+        <v>1.0</v>
+      </c>
+      <c r="F29" t="n" s="356">
+        <v>0.3306</v>
+      </c>
+      <c r="G29" t="n" s="357">
+        <v>0.1866</v>
+      </c>
+      <c r="H29" t="n" s="358">
+        <v>0.2856</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="347">
+        <v>95</v>
+      </c>
+      <c r="B30" t="n" s="352">
+        <v>0.293</v>
+      </c>
+      <c r="C30" t="n" s="353">
+        <v>0.1001</v>
+      </c>
+      <c r="D30" t="n" s="354">
+        <v>0.3209</v>
+      </c>
+      <c r="E30" t="n" s="355">
+        <v>0.3306</v>
+      </c>
+      <c r="F30" t="n" s="356">
+        <v>1.0</v>
+      </c>
+      <c r="G30" t="n" s="357">
+        <v>0.4314</v>
+      </c>
+      <c r="H30" t="n" s="358">
+        <v>0.3256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="347">
+        <v>96</v>
+      </c>
+      <c r="B31" t="n" s="352">
+        <v>0.2958</v>
+      </c>
+      <c r="C31" t="n" s="353">
+        <v>0.0232</v>
+      </c>
+      <c r="D31" t="n" s="354">
+        <v>0.345</v>
+      </c>
+      <c r="E31" t="n" s="355">
+        <v>0.1866</v>
+      </c>
+      <c r="F31" t="n" s="356">
+        <v>0.4314</v>
+      </c>
+      <c r="G31" t="n" s="357">
+        <v>1.0</v>
+      </c>
+      <c r="H31" t="n" s="358">
+        <v>0.4934</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="347">
+        <v>97</v>
+      </c>
+      <c r="B32" t="n" s="352">
+        <v>0.1183</v>
+      </c>
+      <c r="C32" t="n" s="353">
+        <v>0.0739</v>
+      </c>
+      <c r="D32" t="n" s="354">
+        <v>0.4489</v>
+      </c>
+      <c r="E32" t="n" s="355">
+        <v>0.2856</v>
+      </c>
+      <c r="F32" t="n" s="356">
+        <v>0.3256</v>
+      </c>
+      <c r="G32" t="n" s="357">
+        <v>0.4934</v>
+      </c>
+      <c r="H32" t="n" s="358">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="362">
         <v>99</v>
       </c>
-      <c r="C25" t="s" s="326">
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="376">
         <v>100</v>
       </c>
-      <c r="D25" t="s" s="326">
+      <c r="C36" t="s" s="376">
         <v>101</v>
       </c>
-      <c r="E25" t="s" s="326">
+      <c r="D36" t="s" s="376">
         <v>102</v>
       </c>
-      <c r="F25" t="s" s="326">
+      <c r="E36" t="s" s="376">
         <v>103</v>
       </c>
-      <c r="G25" t="s" s="326">
+      <c r="F36" t="s" s="376">
         <v>104</v>
       </c>
-      <c r="H25" t="s" s="326">
+      <c r="G36" t="s" s="376">
         <v>105</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="322">
+      <c r="H36" t="s" s="376">
         <v>106</v>
       </c>
-      <c r="B26" t="n" s="327">
-        <v>2.9</v>
-      </c>
-      <c r="C26" t="n" s="328">
-        <v>2.68</v>
-      </c>
-      <c r="D26" t="n" s="329">
-        <v>2.65</v>
-      </c>
-      <c r="E26" t="n" s="330">
-        <v>2.62</v>
-      </c>
-      <c r="F26" t="n" s="331">
-        <v>1.79</v>
-      </c>
-      <c r="G26" t="n" s="332">
-        <v>1.32</v>
-      </c>
-      <c r="H26" t="n" s="333">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="322">
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="372">
         <v>107</v>
       </c>
-      <c r="B27" t="n" s="327">
-        <v>0.18</v>
-      </c>
-      <c r="C27" t="n" s="328">
-        <v>0.17</v>
-      </c>
-      <c r="D27" t="n" s="329">
-        <v>0.17</v>
-      </c>
-      <c r="E27" t="n" s="330">
-        <v>0.16</v>
-      </c>
-      <c r="F27" t="n" s="331">
-        <v>0.11</v>
-      </c>
-      <c r="G27" t="n" s="332">
-        <v>0.08</v>
-      </c>
-      <c r="H27" t="n" s="333">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="322">
+      <c r="B37" t="n" s="377">
+        <v>2.8951</v>
+      </c>
+      <c r="C37" t="n" s="378">
+        <v>2.6836</v>
+      </c>
+      <c r="D37" t="n" s="379">
+        <v>2.6548</v>
+      </c>
+      <c r="E37" t="n" s="380">
+        <v>2.6236</v>
+      </c>
+      <c r="F37" t="n" s="381">
+        <v>1.7913</v>
+      </c>
+      <c r="G37" t="n" s="382">
+        <v>1.3219</v>
+      </c>
+      <c r="H37" t="n" s="383">
+        <v>0.4271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="372">
         <v>108</v>
       </c>
-      <c r="B28" t="n" s="327">
-        <v>0.18</v>
-      </c>
-      <c r="C28" t="n" s="328">
-        <v>0.35</v>
-      </c>
-      <c r="D28" t="n" s="329">
-        <v>0.51</v>
-      </c>
-      <c r="E28" t="n" s="330">
-        <v>0.68</v>
-      </c>
-      <c r="F28" t="n" s="331">
-        <v>0.79</v>
-      </c>
-      <c r="G28" t="n" s="332">
-        <v>0.87</v>
-      </c>
-      <c r="H28" t="n" s="333">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="322">
+      <c r="B38" t="n" s="377">
+        <v>0.1809</v>
+      </c>
+      <c r="C38" t="n" s="378">
+        <v>0.1677</v>
+      </c>
+      <c r="D38" t="n" s="379">
+        <v>0.1659</v>
+      </c>
+      <c r="E38" t="n" s="380">
+        <v>0.164</v>
+      </c>
+      <c r="F38" t="n" s="381">
+        <v>0.112</v>
+      </c>
+      <c r="G38" t="n" s="382">
+        <v>0.0826</v>
+      </c>
+      <c r="H38" t="n" s="383">
+        <v>0.0267</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="372">
         <v>109</v>
       </c>
-      <c r="B29" t="n" s="327">
-        <v>0.2</v>
-      </c>
-      <c r="C29" t="n" s="328">
-        <v>0.19</v>
-      </c>
-      <c r="D29" t="n" s="329">
-        <v>0.18</v>
-      </c>
-      <c r="E29" t="n" s="330">
-        <v>0.18</v>
-      </c>
-      <c r="F29" t="n" s="331">
-        <v>0.12</v>
-      </c>
-      <c r="G29" t="n" s="332">
-        <v>0.09</v>
-      </c>
-      <c r="H29" t="n" s="333">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="322">
+      <c r="B39" t="n" s="377">
+        <v>0.1809</v>
+      </c>
+      <c r="C39" t="n" s="378">
+        <v>0.3487</v>
+      </c>
+      <c r="D39" t="n" s="379">
+        <v>0.5146</v>
+      </c>
+      <c r="E39" t="n" s="380">
+        <v>0.6786</v>
+      </c>
+      <c r="F39" t="n" s="381">
+        <v>0.7905</v>
+      </c>
+      <c r="G39" t="n" s="382">
+        <v>0.8732</v>
+      </c>
+      <c r="H39" t="n" s="383">
+        <v>0.8998</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="372">
         <v>110</v>
       </c>
-      <c r="B30" t="n" s="327">
-        <v>0.2</v>
-      </c>
-      <c r="C30" t="n" s="328">
-        <v>0.39</v>
-      </c>
-      <c r="D30" t="n" s="329">
-        <v>0.57</v>
-      </c>
-      <c r="E30" t="n" s="330">
-        <v>0.75</v>
-      </c>
-      <c r="F30" t="n" s="331">
-        <v>0.88</v>
-      </c>
-      <c r="G30" t="n" s="332">
-        <v>0.97</v>
-      </c>
-      <c r="H30" t="n" s="333">
+      <c r="B40" t="n" s="377">
+        <v>0.2011</v>
+      </c>
+      <c r="C40" t="n" s="378">
+        <v>0.1864</v>
+      </c>
+      <c r="D40" t="n" s="379">
+        <v>0.1844</v>
+      </c>
+      <c r="E40" t="n" s="380">
+        <v>0.1822</v>
+      </c>
+      <c r="F40" t="n" s="381">
+        <v>0.1244</v>
+      </c>
+      <c r="G40" t="n" s="382">
+        <v>0.0918</v>
+      </c>
+      <c r="H40" t="n" s="383">
+        <v>0.0297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="372">
+        <v>111</v>
+      </c>
+      <c r="B41" t="n" s="377">
+        <v>0.2011</v>
+      </c>
+      <c r="C41" t="n" s="378">
+        <v>0.3875</v>
+      </c>
+      <c r="D41" t="n" s="379">
+        <v>0.5719</v>
+      </c>
+      <c r="E41" t="n" s="380">
+        <v>0.7541</v>
+      </c>
+      <c r="F41" t="n" s="381">
+        <v>0.8785</v>
+      </c>
+      <c r="G41" t="n" s="382">
+        <v>0.9703</v>
+      </c>
+      <c r="H41" t="n" s="383">
         <v>1.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
+    <row r="43">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="337">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34"/>
-      <c r="B34" t="s" s="351">
+    <row r="44">
+      <c r="A44" t="s" s="387">
         <v>112</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="347">
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45" t="s" s="401">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="397">
         <v>66</v>
       </c>
-      <c r="B35" t="n" s="352">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="347">
+      <c r="B46" t="n" s="402">
+        <v>1.0696</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="397">
         <v>67</v>
       </c>
-      <c r="B36" t="n" s="352">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="347">
+      <c r="B47" t="n" s="402">
+        <v>1.0842</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="397">
         <v>68</v>
       </c>
-      <c r="B37" t="n" s="352">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="347">
+      <c r="B48" t="n" s="402">
+        <v>1.0747</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="397">
         <v>69</v>
       </c>
-      <c r="B38" t="n" s="352">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="347">
+      <c r="B49" t="n" s="402">
+        <v>1.3137</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="397">
         <v>70</v>
       </c>
-      <c r="B39" t="n" s="352">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="347">
+      <c r="B50" t="n" s="402">
+        <v>1.0975</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="397">
         <v>71</v>
       </c>
-      <c r="B40" t="n" s="352">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="347">
+      <c r="B51" t="n" s="402">
+        <v>1.0317</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="397">
         <v>72</v>
       </c>
-      <c r="B41" t="n" s="352">
+      <c r="B52" t="n" s="402">
         <v>1.04</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="347">
+    <row r="53">
+      <c r="A53" t="s" s="397">
         <v>73</v>
       </c>
-      <c r="B42" t="n" s="352">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="347">
+      <c r="B53" t="n" s="402">
+        <v>1.0214</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="397">
         <v>74</v>
       </c>
-      <c r="B43" t="n" s="352">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="347">
+      <c r="B54" t="n" s="402">
+        <v>1.1667</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="397">
         <v>75</v>
       </c>
-      <c r="B44" t="n" s="352">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="347">
+      <c r="B55" t="n" s="402">
+        <v>1.0476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="397">
         <v>76</v>
       </c>
-      <c r="B45" t="n" s="352">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="347">
+      <c r="B56" t="n" s="402">
+        <v>1.0404</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="397">
         <v>77</v>
       </c>
-      <c r="B46" t="n" s="352">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="347">
+      <c r="B57" t="n" s="402">
+        <v>1.0693</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="397">
         <v>78</v>
       </c>
-      <c r="B47" t="n" s="352">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="347">
+      <c r="B58" t="n" s="402">
+        <v>1.0284</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="397">
         <v>79</v>
       </c>
-      <c r="B48" t="n" s="352">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="347">
+      <c r="B59" t="n" s="402">
+        <v>1.9047</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="397">
         <v>80</v>
       </c>
-      <c r="B49" t="n" s="352">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="347">
+      <c r="B60" t="n" s="402">
+        <v>1.1418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="397">
         <v>81</v>
       </c>
-      <c r="B50" t="n" s="352">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="B61" t="n" s="402">
+        <v>1.3341</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s">
+    <row r="63">
+      <c r="A63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="356">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="367">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
+    <row r="64">
+      <c r="A64" t="s" s="406">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="417">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
+    <row r="67">
+      <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
+    <row r="68">
+      <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
+    <row r="69">
+      <c r="A69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="70">
+      <c r="A70" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A54:J58"/>
+    <mergeCell ref="A65:J69"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6644,8 +7440,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="369">
-        <v>117</v>
+      <c r="A1" t="s" s="419">
+        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -6659,397 +7455,397 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="383">
+      <c r="A4" t="s" s="433">
         <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
-      <c r="B5" t="s" s="397">
+      <c r="B5" t="s" s="447">
         <v>93</v>
       </c>
-      <c r="C5" t="s" s="397">
+      <c r="C5" t="s" s="447">
         <v>94</v>
       </c>
-      <c r="D5" t="s" s="397">
+      <c r="D5" t="s" s="447">
         <v>92</v>
       </c>
-      <c r="E5" t="s" s="397">
+      <c r="E5" t="s" s="447">
         <v>91</v>
       </c>
-      <c r="F5" t="s" s="397">
+      <c r="F5" t="s" s="447">
         <v>95</v>
       </c>
-      <c r="G5" t="s" s="397">
+      <c r="G5" t="s" s="447">
         <v>96</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="393">
+      <c r="A6" t="s" s="443">
         <v>66</v>
       </c>
-      <c r="B6" t="n" s="398">
-        <v>0.08</v>
-      </c>
-      <c r="C6" t="n" s="399">
-        <v>-0.03</v>
-      </c>
-      <c r="D6" t="n" s="400">
-        <v>1.09</v>
-      </c>
-      <c r="E6" t="n" s="401">
-        <v>-0.1</v>
-      </c>
-      <c r="F6" t="n" s="402">
-        <v>0.07</v>
-      </c>
-      <c r="G6" t="n" s="403">
-        <v>-0.21</v>
+      <c r="B6" t="n" s="448">
+        <v>0.0776</v>
+      </c>
+      <c r="C6" t="n" s="449">
+        <v>-0.0323</v>
+      </c>
+      <c r="D6" t="n" s="450">
+        <v>1.0899</v>
+      </c>
+      <c r="E6" t="n" s="451">
+        <v>-0.0974</v>
+      </c>
+      <c r="F6" t="n" s="452">
+        <v>0.0664</v>
+      </c>
+      <c r="G6" t="n" s="453">
+        <v>-0.2074</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="393">
+      <c r="A7" t="s" s="443">
         <v>67</v>
       </c>
-      <c r="B7" t="n" s="398">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n" s="399">
-        <v>-0.0</v>
-      </c>
-      <c r="D7" t="n" s="400">
-        <v>0.76</v>
-      </c>
-      <c r="E7" t="n" s="401">
-        <v>0.19</v>
-      </c>
-      <c r="F7" t="n" s="402">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="n" s="403">
-        <v>0.11</v>
+      <c r="B7" t="n" s="448">
+        <v>0.0012</v>
+      </c>
+      <c r="C7" t="n" s="449">
+        <v>-0.0039</v>
+      </c>
+      <c r="D7" t="n" s="450">
+        <v>0.7637</v>
+      </c>
+      <c r="E7" t="n" s="451">
+        <v>0.1934</v>
+      </c>
+      <c r="F7" t="n" s="452">
+        <v>0.0103</v>
+      </c>
+      <c r="G7" t="n" s="453">
+        <v>0.1058</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="393">
+      <c r="A8" t="s" s="443">
         <v>68</v>
       </c>
-      <c r="B8" t="n" s="398">
-        <v>-0.04</v>
-      </c>
-      <c r="C8" t="n" s="399">
-        <v>0.05</v>
-      </c>
-      <c r="D8" t="n" s="400">
-        <v>0.87</v>
-      </c>
-      <c r="E8" t="n" s="401">
-        <v>-0.01</v>
-      </c>
-      <c r="F8" t="n" s="402">
-        <v>-0.05</v>
-      </c>
-      <c r="G8" t="n" s="403">
-        <v>0.08</v>
+      <c r="B8" t="n" s="448">
+        <v>-0.0379</v>
+      </c>
+      <c r="C8" t="n" s="449">
+        <v>0.0457</v>
+      </c>
+      <c r="D8" t="n" s="450">
+        <v>0.8717</v>
+      </c>
+      <c r="E8" t="n" s="451">
+        <v>-0.0116</v>
+      </c>
+      <c r="F8" t="n" s="452">
+        <v>-0.0512</v>
+      </c>
+      <c r="G8" t="n" s="453">
+        <v>0.0794</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="393">
+      <c r="A9" t="s" s="443">
         <v>69</v>
       </c>
-      <c r="B9" t="n" s="398">
-        <v>0.1</v>
-      </c>
-      <c r="C9" t="n" s="399">
-        <v>0.05</v>
-      </c>
-      <c r="D9" t="n" s="400">
-        <v>-0.09</v>
-      </c>
-      <c r="E9" t="n" s="401">
-        <v>0.98</v>
-      </c>
-      <c r="F9" t="n" s="402">
-        <v>0.15</v>
-      </c>
-      <c r="G9" t="n" s="403">
-        <v>-0.38</v>
+      <c r="B9" t="n" s="448">
+        <v>0.0959</v>
+      </c>
+      <c r="C9" t="n" s="449">
+        <v>0.0541</v>
+      </c>
+      <c r="D9" t="n" s="450">
+        <v>-0.0888</v>
+      </c>
+      <c r="E9" t="n" s="451">
+        <v>0.9762</v>
+      </c>
+      <c r="F9" t="n" s="452">
+        <v>0.147</v>
+      </c>
+      <c r="G9" t="n" s="453">
+        <v>-0.381</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="393">
+      <c r="A10" t="s" s="443">
         <v>70</v>
       </c>
-      <c r="B10" t="n" s="398">
-        <v>-0.05</v>
-      </c>
-      <c r="C10" t="n" s="399">
-        <v>0.01</v>
-      </c>
-      <c r="D10" t="n" s="400">
-        <v>0.05</v>
-      </c>
-      <c r="E10" t="n" s="401">
-        <v>0.93</v>
-      </c>
-      <c r="F10" t="n" s="402">
-        <v>-0.15</v>
-      </c>
-      <c r="G10" t="n" s="403">
-        <v>0.29</v>
+      <c r="B10" t="n" s="448">
+        <v>-0.0479</v>
+      </c>
+      <c r="C10" t="n" s="449">
+        <v>0.0095</v>
+      </c>
+      <c r="D10" t="n" s="450">
+        <v>0.0542</v>
+      </c>
+      <c r="E10" t="n" s="451">
+        <v>0.9322</v>
+      </c>
+      <c r="F10" t="n" s="452">
+        <v>-0.1521</v>
+      </c>
+      <c r="G10" t="n" s="453">
+        <v>0.2853</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="393">
+      <c r="A11" t="s" s="443">
         <v>71</v>
       </c>
-      <c r="B11" t="n" s="398">
-        <v>-0.02</v>
-      </c>
-      <c r="C11" t="n" s="399">
-        <v>-0.06</v>
-      </c>
-      <c r="D11" t="n" s="400">
-        <v>0.06</v>
-      </c>
-      <c r="E11" t="n" s="401">
-        <v>0.82</v>
-      </c>
-      <c r="F11" t="n" s="402">
-        <v>-0.0</v>
-      </c>
-      <c r="G11" t="n" s="403">
-        <v>0.04</v>
+      <c r="B11" t="n" s="448">
+        <v>-0.0245</v>
+      </c>
+      <c r="C11" t="n" s="449">
+        <v>-0.0564</v>
+      </c>
+      <c r="D11" t="n" s="450">
+        <v>0.0595</v>
+      </c>
+      <c r="E11" t="n" s="451">
+        <v>0.8216</v>
+      </c>
+      <c r="F11" t="n" s="452">
+        <v>-0.0029</v>
+      </c>
+      <c r="G11" t="n" s="453">
+        <v>0.0402</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="393">
+      <c r="A12" t="s" s="443">
         <v>72</v>
       </c>
-      <c r="B12" t="n" s="398">
-        <v>0.99</v>
-      </c>
-      <c r="C12" t="n" s="399">
-        <v>-0.01</v>
-      </c>
-      <c r="D12" t="n" s="400">
-        <v>0.03</v>
-      </c>
-      <c r="E12" t="n" s="401">
-        <v>-0.03</v>
-      </c>
-      <c r="F12" t="n" s="402">
-        <v>0.01</v>
-      </c>
-      <c r="G12" t="n" s="403">
-        <v>-0.02</v>
+      <c r="B12" t="n" s="448">
+        <v>0.9947</v>
+      </c>
+      <c r="C12" t="n" s="449">
+        <v>-0.0112</v>
+      </c>
+      <c r="D12" t="n" s="450">
+        <v>0.0303</v>
+      </c>
+      <c r="E12" t="n" s="451">
+        <v>-0.0303</v>
+      </c>
+      <c r="F12" t="n" s="452">
+        <v>0.0148</v>
+      </c>
+      <c r="G12" t="n" s="453">
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="393">
+      <c r="A13" t="s" s="443">
         <v>73</v>
       </c>
-      <c r="B13" t="n" s="398">
-        <v>0.96</v>
-      </c>
-      <c r="C13" t="n" s="399">
-        <v>-0.0</v>
-      </c>
-      <c r="D13" t="n" s="400">
-        <v>-0.01</v>
-      </c>
-      <c r="E13" t="n" s="401">
-        <v>0.06</v>
-      </c>
-      <c r="F13" t="n" s="402">
-        <v>0.05</v>
-      </c>
-      <c r="G13" t="n" s="403">
-        <v>0.01</v>
+      <c r="B13" t="n" s="448">
+        <v>0.958</v>
+      </c>
+      <c r="C13" t="n" s="449">
+        <v>-1.0E-4</v>
+      </c>
+      <c r="D13" t="n" s="450">
+        <v>-0.0106</v>
+      </c>
+      <c r="E13" t="n" s="451">
+        <v>0.0642</v>
+      </c>
+      <c r="F13" t="n" s="452">
+        <v>0.0491</v>
+      </c>
+      <c r="G13" t="n" s="453">
+        <v>0.0143</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="393">
+      <c r="A14" t="s" s="443">
         <v>74</v>
       </c>
-      <c r="B14" t="n" s="398">
-        <v>0.94</v>
-      </c>
-      <c r="C14" t="n" s="399">
-        <v>0.01</v>
-      </c>
-      <c r="D14" t="n" s="400">
-        <v>0.02</v>
-      </c>
-      <c r="E14" t="n" s="401">
-        <v>-0.0</v>
-      </c>
-      <c r="F14" t="n" s="402">
-        <v>-0.08</v>
-      </c>
-      <c r="G14" t="n" s="403">
-        <v>0.12</v>
+      <c r="B14" t="n" s="448">
+        <v>0.9414</v>
+      </c>
+      <c r="C14" t="n" s="449">
+        <v>0.0104</v>
+      </c>
+      <c r="D14" t="n" s="450">
+        <v>0.0211</v>
+      </c>
+      <c r="E14" t="n" s="451">
+        <v>-0.0019</v>
+      </c>
+      <c r="F14" t="n" s="452">
+        <v>-0.0832</v>
+      </c>
+      <c r="G14" t="n" s="453">
+        <v>0.1199</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="393">
+      <c r="A15" t="s" s="443">
         <v>75</v>
       </c>
-      <c r="B15" t="n" s="398">
-        <v>-0.03</v>
-      </c>
-      <c r="C15" t="n" s="399">
-        <v>0.98</v>
-      </c>
-      <c r="D15" t="n" s="400">
-        <v>-0.0</v>
-      </c>
-      <c r="E15" t="n" s="401">
-        <v>0.09</v>
-      </c>
-      <c r="F15" t="n" s="402">
-        <v>-0.01</v>
-      </c>
-      <c r="G15" t="n" s="403">
-        <v>-0.11</v>
+      <c r="B15" t="n" s="448">
+        <v>-0.0326</v>
+      </c>
+      <c r="C15" t="n" s="449">
+        <v>0.9812</v>
+      </c>
+      <c r="D15" t="n" s="450">
+        <v>-0.0011</v>
+      </c>
+      <c r="E15" t="n" s="451">
+        <v>0.0861</v>
+      </c>
+      <c r="F15" t="n" s="452">
+        <v>-0.0107</v>
+      </c>
+      <c r="G15" t="n" s="453">
+        <v>-0.1142</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="393">
+      <c r="A16" t="s" s="443">
         <v>76</v>
       </c>
-      <c r="B16" t="n" s="398">
-        <v>0.03</v>
-      </c>
-      <c r="C16" t="n" s="399">
-        <v>0.91</v>
-      </c>
-      <c r="D16" t="n" s="400">
-        <v>-0.1</v>
-      </c>
-      <c r="E16" t="n" s="401">
-        <v>0.04</v>
-      </c>
-      <c r="F16" t="n" s="402">
-        <v>0.02</v>
-      </c>
-      <c r="G16" t="n" s="403">
-        <v>0.07</v>
+      <c r="B16" t="n" s="448">
+        <v>0.0284</v>
+      </c>
+      <c r="C16" t="n" s="449">
+        <v>0.9116</v>
+      </c>
+      <c r="D16" t="n" s="450">
+        <v>-0.0976</v>
+      </c>
+      <c r="E16" t="n" s="451">
+        <v>0.0423</v>
+      </c>
+      <c r="F16" t="n" s="452">
+        <v>0.0161</v>
+      </c>
+      <c r="G16" t="n" s="453">
+        <v>0.0719</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="393">
+      <c r="A17" t="s" s="443">
         <v>77</v>
       </c>
-      <c r="B17" t="n" s="398">
-        <v>0.0</v>
-      </c>
-      <c r="C17" t="n" s="399">
-        <v>0.94</v>
-      </c>
-      <c r="D17" t="n" s="400">
-        <v>0.11</v>
-      </c>
-      <c r="E17" t="n" s="401">
-        <v>-0.12</v>
-      </c>
-      <c r="F17" t="n" s="402">
-        <v>-0.01</v>
-      </c>
-      <c r="G17" t="n" s="403">
-        <v>0.03</v>
+      <c r="B17" t="n" s="448">
+        <v>2.0E-4</v>
+      </c>
+      <c r="C17" t="n" s="449">
+        <v>0.9375</v>
+      </c>
+      <c r="D17" t="n" s="450">
+        <v>0.1079</v>
+      </c>
+      <c r="E17" t="n" s="451">
+        <v>-0.1229</v>
+      </c>
+      <c r="F17" t="n" s="452">
+        <v>-0.0108</v>
+      </c>
+      <c r="G17" t="n" s="453">
+        <v>0.0332</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="393">
+      <c r="A18" t="s" s="443">
         <v>78</v>
       </c>
-      <c r="B18" t="n" s="398">
-        <v>0.11</v>
-      </c>
-      <c r="C18" t="n" s="399">
-        <v>-0.0</v>
-      </c>
-      <c r="D18" t="n" s="400">
-        <v>-0.1</v>
-      </c>
-      <c r="E18" t="n" s="401">
-        <v>-0.07</v>
-      </c>
-      <c r="F18" t="n" s="402">
-        <v>0.0</v>
-      </c>
-      <c r="G18" t="n" s="403">
-        <v>0.78</v>
+      <c r="B18" t="n" s="448">
+        <v>0.1102</v>
+      </c>
+      <c r="C18" t="n" s="449">
+        <v>-1.0E-4</v>
+      </c>
+      <c r="D18" t="n" s="450">
+        <v>-0.0988</v>
+      </c>
+      <c r="E18" t="n" s="451">
+        <v>-0.068</v>
+      </c>
+      <c r="F18" t="n" s="452">
+        <v>0.0044</v>
+      </c>
+      <c r="G18" t="n" s="453">
+        <v>0.7828</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="393">
+      <c r="A19" t="s" s="443">
         <v>79</v>
       </c>
-      <c r="B19" t="n" s="398">
-        <v>-0.04</v>
-      </c>
-      <c r="C19" t="n" s="399">
-        <v>-0.0</v>
-      </c>
-      <c r="D19" t="n" s="400">
-        <v>0.07</v>
-      </c>
-      <c r="E19" t="n" s="401">
-        <v>0.02</v>
-      </c>
-      <c r="F19" t="n" s="402">
-        <v>0.08</v>
-      </c>
-      <c r="G19" t="n" s="403">
-        <v>0.51</v>
+      <c r="B19" t="n" s="448">
+        <v>-0.0402</v>
+      </c>
+      <c r="C19" t="n" s="449">
+        <v>-7.0E-4</v>
+      </c>
+      <c r="D19" t="n" s="450">
+        <v>0.0747</v>
+      </c>
+      <c r="E19" t="n" s="451">
+        <v>0.015</v>
+      </c>
+      <c r="F19" t="n" s="452">
+        <v>0.0815</v>
+      </c>
+      <c r="G19" t="n" s="453">
+        <v>0.5149</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="393">
+      <c r="A20" t="s" s="443">
         <v>80</v>
       </c>
-      <c r="B20" t="n" s="398">
-        <v>-0.0</v>
-      </c>
-      <c r="C20" t="n" s="399">
-        <v>-0.02</v>
-      </c>
-      <c r="D20" t="n" s="400">
-        <v>0.06</v>
-      </c>
-      <c r="E20" t="n" s="401">
-        <v>0.01</v>
-      </c>
-      <c r="F20" t="n" s="402">
-        <v>1.01</v>
-      </c>
-      <c r="G20" t="n" s="403">
-        <v>-0.06</v>
+      <c r="B20" t="n" s="448">
+        <v>-0.0036</v>
+      </c>
+      <c r="C20" t="n" s="449">
+        <v>-0.0237</v>
+      </c>
+      <c r="D20" t="n" s="450">
+        <v>0.0579</v>
+      </c>
+      <c r="E20" t="n" s="451">
+        <v>0.0093</v>
+      </c>
+      <c r="F20" t="n" s="452">
+        <v>1.0091</v>
+      </c>
+      <c r="G20" t="n" s="453">
+        <v>-0.0586</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="393">
+      <c r="A21" t="s" s="443">
         <v>81</v>
       </c>
-      <c r="B21" t="n" s="398">
-        <v>-0.02</v>
-      </c>
-      <c r="C21" t="n" s="399">
-        <v>0.03</v>
-      </c>
-      <c r="D21" t="n" s="400">
-        <v>-0.05</v>
-      </c>
-      <c r="E21" t="n" s="401">
-        <v>0.01</v>
-      </c>
-      <c r="F21" t="n" s="402">
-        <v>0.73</v>
-      </c>
-      <c r="G21" t="n" s="403">
-        <v>0.29</v>
+      <c r="B21" t="n" s="448">
+        <v>-0.0182</v>
+      </c>
+      <c r="C21" t="n" s="449">
+        <v>0.0259</v>
+      </c>
+      <c r="D21" t="n" s="450">
+        <v>-0.0542</v>
+      </c>
+      <c r="E21" t="n" s="451">
+        <v>0.0066</v>
+      </c>
+      <c r="F21" t="n" s="452">
+        <v>0.7297</v>
+      </c>
+      <c r="G21" t="n" s="453">
+        <v>0.289</v>
       </c>
     </row>
     <row r="22">
@@ -7063,149 +7859,167 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="407">
+      <c r="A24" t="s" s="457">
         <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
-      <c r="B25" t="s" s="421">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s" s="421">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s" s="421">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s" s="421">
-        <v>99</v>
-      </c>
-      <c r="F25" t="s" s="421">
-        <v>103</v>
-      </c>
-      <c r="G25" t="s" s="421">
-        <v>104</v>
+      <c r="B25" t="s" s="471">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s" s="471">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s" s="471">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s" s="471">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s" s="471">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s" s="471">
+        <v>96</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="417">
-        <v>106</v>
-      </c>
-      <c r="B26" t="n" s="422">
-        <v>2.89</v>
-      </c>
-      <c r="C26" t="n" s="423">
-        <v>2.69</v>
-      </c>
-      <c r="D26" t="n" s="424">
-        <v>2.6</v>
-      </c>
-      <c r="E26" t="n" s="425">
-        <v>2.6</v>
-      </c>
-      <c r="F26" t="n" s="426">
-        <v>1.67</v>
-      </c>
-      <c r="G26" t="n" s="427">
-        <v>1.3</v>
+      <c r="A26" t="s" s="467">
+        <v>93</v>
+      </c>
+      <c r="B26" t="n" s="472">
+        <v>1.0</v>
+      </c>
+      <c r="C26" t="n" s="473">
+        <v>0.0252</v>
+      </c>
+      <c r="D26" t="n" s="474">
+        <v>0.2679</v>
+      </c>
+      <c r="E26" t="n" s="475">
+        <v>0.2633</v>
+      </c>
+      <c r="F26" t="n" s="476">
+        <v>0.2786</v>
+      </c>
+      <c r="G26" t="n" s="477">
+        <v>0.3385</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="417">
-        <v>107</v>
-      </c>
-      <c r="B27" t="n" s="422">
-        <v>0.18</v>
-      </c>
-      <c r="C27" t="n" s="423">
-        <v>0.17</v>
-      </c>
-      <c r="D27" t="n" s="424">
-        <v>0.16</v>
-      </c>
-      <c r="E27" t="n" s="425">
-        <v>0.16</v>
-      </c>
-      <c r="F27" t="n" s="426">
-        <v>0.1</v>
-      </c>
-      <c r="G27" t="n" s="427">
-        <v>0.08</v>
+      <c r="A27" t="s" s="467">
+        <v>94</v>
+      </c>
+      <c r="B27" t="n" s="472">
+        <v>0.0252</v>
+      </c>
+      <c r="C27" t="n" s="473">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n" s="474">
+        <v>0.0367</v>
+      </c>
+      <c r="E27" t="n" s="475">
+        <v>0.1853</v>
+      </c>
+      <c r="F27" t="n" s="476">
+        <v>0.1004</v>
+      </c>
+      <c r="G27" t="n" s="477">
+        <v>0.0632</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="417">
-        <v>108</v>
-      </c>
-      <c r="B28" t="n" s="422">
-        <v>0.18</v>
-      </c>
-      <c r="C28" t="n" s="423">
-        <v>0.35</v>
-      </c>
-      <c r="D28" t="n" s="424">
-        <v>0.51</v>
-      </c>
-      <c r="E28" t="n" s="425">
-        <v>0.67</v>
-      </c>
-      <c r="F28" t="n" s="426">
-        <v>0.78</v>
-      </c>
-      <c r="G28" t="n" s="427">
-        <v>0.86</v>
+      <c r="A28" t="s" s="467">
+        <v>92</v>
+      </c>
+      <c r="B28" t="n" s="472">
+        <v>0.2679</v>
+      </c>
+      <c r="C28" t="n" s="473">
+        <v>0.0367</v>
+      </c>
+      <c r="D28" t="n" s="474">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="475">
+        <v>0.5535</v>
+      </c>
+      <c r="F28" t="n" s="476">
+        <v>0.2734</v>
+      </c>
+      <c r="G28" t="n" s="477">
+        <v>0.4489</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="417">
-        <v>109</v>
-      </c>
-      <c r="B29" t="n" s="422">
-        <v>0.21</v>
-      </c>
-      <c r="C29" t="n" s="423">
-        <v>0.2</v>
-      </c>
-      <c r="D29" t="n" s="424">
-        <v>0.19</v>
-      </c>
-      <c r="E29" t="n" s="425">
-        <v>0.19</v>
-      </c>
-      <c r="F29" t="n" s="426">
-        <v>0.12</v>
-      </c>
-      <c r="G29" t="n" s="427">
-        <v>0.09</v>
+      <c r="A29" t="s" s="467">
+        <v>91</v>
+      </c>
+      <c r="B29" t="n" s="472">
+        <v>0.2633</v>
+      </c>
+      <c r="C29" t="n" s="473">
+        <v>0.1853</v>
+      </c>
+      <c r="D29" t="n" s="474">
+        <v>0.5535</v>
+      </c>
+      <c r="E29" t="n" s="475">
+        <v>1.0</v>
+      </c>
+      <c r="F29" t="n" s="476">
+        <v>0.3063</v>
+      </c>
+      <c r="G29" t="n" s="477">
+        <v>0.2031</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="417">
-        <v>110</v>
-      </c>
-      <c r="B30" t="n" s="422">
-        <v>0.21</v>
-      </c>
-      <c r="C30" t="n" s="423">
-        <v>0.41</v>
-      </c>
-      <c r="D30" t="n" s="424">
-        <v>0.59</v>
-      </c>
-      <c r="E30" t="n" s="425">
-        <v>0.78</v>
-      </c>
-      <c r="F30" t="n" s="426">
-        <v>0.91</v>
-      </c>
-      <c r="G30" t="n" s="427">
+      <c r="A30" t="s" s="467">
+        <v>95</v>
+      </c>
+      <c r="B30" t="n" s="472">
+        <v>0.2786</v>
+      </c>
+      <c r="C30" t="n" s="473">
+        <v>0.1004</v>
+      </c>
+      <c r="D30" t="n" s="474">
+        <v>0.2734</v>
+      </c>
+      <c r="E30" t="n" s="475">
+        <v>0.3063</v>
+      </c>
+      <c r="F30" t="n" s="476">
         <v>1.0</v>
       </c>
+      <c r="G30" t="n" s="477">
+        <v>0.5001</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>1</v>
+      <c r="A31" t="s" s="467">
+        <v>96</v>
+      </c>
+      <c r="B31" t="n" s="472">
+        <v>0.3385</v>
+      </c>
+      <c r="C31" t="n" s="473">
+        <v>0.0632</v>
+      </c>
+      <c r="D31" t="n" s="474">
+        <v>0.4489</v>
+      </c>
+      <c r="E31" t="n" s="475">
+        <v>0.2031</v>
+      </c>
+      <c r="F31" t="n" s="476">
+        <v>0.5001</v>
+      </c>
+      <c r="G31" t="n" s="477">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -7214,192 +8028,348 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="431">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="481">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35" t="s" s="495">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s" s="495">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s" s="495">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s" s="495">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s" s="495">
+        <v>104</v>
+      </c>
+      <c r="G35" t="s" s="495">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="491">
+        <v>107</v>
+      </c>
+      <c r="B36" t="n" s="496">
+        <v>2.8879</v>
+      </c>
+      <c r="C36" t="n" s="497">
+        <v>2.6861</v>
+      </c>
+      <c r="D36" t="n" s="498">
+        <v>2.5969</v>
+      </c>
+      <c r="E36" t="n" s="499">
+        <v>2.5989</v>
+      </c>
+      <c r="F36" t="n" s="500">
+        <v>1.6665</v>
+      </c>
+      <c r="G36" t="n" s="501">
+        <v>1.3016</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="491">
+        <v>108</v>
+      </c>
+      <c r="B37" t="n" s="496">
+        <v>0.1805</v>
+      </c>
+      <c r="C37" t="n" s="497">
+        <v>0.1679</v>
+      </c>
+      <c r="D37" t="n" s="498">
+        <v>0.1623</v>
+      </c>
+      <c r="E37" t="n" s="499">
+        <v>0.1624</v>
+      </c>
+      <c r="F37" t="n" s="500">
+        <v>0.1042</v>
+      </c>
+      <c r="G37" t="n" s="501">
+        <v>0.0813</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="491">
+        <v>109</v>
+      </c>
+      <c r="B38" t="n" s="496">
+        <v>0.1805</v>
+      </c>
+      <c r="C38" t="n" s="497">
+        <v>0.3484</v>
+      </c>
+      <c r="D38" t="n" s="498">
+        <v>0.5107</v>
+      </c>
+      <c r="E38" t="n" s="499">
+        <v>0.6731</v>
+      </c>
+      <c r="F38" t="n" s="500">
+        <v>0.7773</v>
+      </c>
+      <c r="G38" t="n" s="501">
+        <v>0.8586</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="491">
+        <v>110</v>
+      </c>
+      <c r="B39" t="n" s="496">
+        <v>0.2102</v>
+      </c>
+      <c r="C39" t="n" s="497">
+        <v>0.1955</v>
+      </c>
+      <c r="D39" t="n" s="498">
+        <v>0.189</v>
+      </c>
+      <c r="E39" t="n" s="499">
+        <v>0.1892</v>
+      </c>
+      <c r="F39" t="n" s="500">
+        <v>0.1213</v>
+      </c>
+      <c r="G39" t="n" s="501">
+        <v>0.0947</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="491">
         <v>111</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34"/>
-      <c r="B34" t="s" s="445">
+      <c r="B40" t="n" s="496">
+        <v>0.2102</v>
+      </c>
+      <c r="C40" t="n" s="497">
+        <v>0.4057</v>
+      </c>
+      <c r="D40" t="n" s="498">
+        <v>0.5948</v>
+      </c>
+      <c r="E40" t="n" s="499">
+        <v>0.784</v>
+      </c>
+      <c r="F40" t="n" s="500">
+        <v>0.9053</v>
+      </c>
+      <c r="G40" t="n" s="501">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="505">
         <v>112</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="441">
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="519">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="515">
         <v>66</v>
       </c>
-      <c r="B35" t="n" s="446">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="441">
+      <c r="B45" t="n" s="520">
+        <v>1.1091</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="515">
         <v>67</v>
       </c>
-      <c r="B36" t="n" s="446">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="441">
+      <c r="B46" t="n" s="520">
+        <v>1.1688</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="515">
         <v>68</v>
       </c>
-      <c r="B37" t="n" s="446">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="441">
+      <c r="B47" t="n" s="520">
+        <v>1.0333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="515">
         <v>69</v>
       </c>
-      <c r="B38" t="n" s="446">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="441">
+      <c r="B48" t="n" s="520">
+        <v>1.3971</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="515">
         <v>70</v>
       </c>
-      <c r="B39" t="n" s="446">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="441">
+      <c r="B49" t="n" s="520">
+        <v>1.2569</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="515">
         <v>71</v>
       </c>
-      <c r="B40" t="n" s="446">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="441">
+      <c r="B50" t="n" s="520">
+        <v>1.0266</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="515">
         <v>72</v>
       </c>
-      <c r="B41" t="n" s="446">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="441">
+      <c r="B51" t="n" s="520">
+        <v>1.0056</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="515">
         <v>73</v>
       </c>
-      <c r="B42" t="n" s="446">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="441">
+      <c r="B52" t="n" s="520">
+        <v>1.015</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="515">
         <v>74</v>
       </c>
-      <c r="B43" t="n" s="446">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="441">
+      <c r="B53" t="n" s="520">
+        <v>1.0496</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="515">
         <v>75</v>
       </c>
-      <c r="B44" t="n" s="446">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="441">
+      <c r="B54" t="n" s="520">
+        <v>1.0452</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="515">
         <v>76</v>
       </c>
-      <c r="B45" t="n" s="446">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="441">
+      <c r="B55" t="n" s="520">
+        <v>1.0425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="515">
         <v>77</v>
       </c>
-      <c r="B46" t="n" s="446">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="441">
+      <c r="B56" t="n" s="520">
+        <v>1.0641</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="515">
         <v>78</v>
       </c>
-      <c r="B47" t="n" s="446">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="441">
+      <c r="B57" t="n" s="520">
+        <v>1.0878</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="515">
         <v>79</v>
       </c>
-      <c r="B48" t="n" s="446">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="441">
+      <c r="B58" t="n" s="520">
+        <v>1.1077</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="515">
         <v>80</v>
       </c>
-      <c r="B49" t="n" s="446">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="441">
+      <c r="B59" t="n" s="520">
+        <v>1.0146</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="515">
         <v>81</v>
       </c>
-      <c r="B50" t="n" s="446">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="B60" t="n" s="520">
+        <v>1.3232</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s">
+    <row r="62">
+      <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="450">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="461">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
+    <row r="63">
+      <c r="A63" t="s" s="524">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="535">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
+    <row r="66">
+      <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
+    <row r="67">
+      <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
+    <row r="68">
+      <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="69">
+      <c r="A69" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A54:J58"/>
+    <mergeCell ref="A64:J68"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
